--- a/SampleRapidReactScoutingData.xlsx
+++ b/SampleRapidReactScoutingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Snowflake/Documents/Crystal Zhang/git/Scouting-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DC306-E8E1-9B47-AFC6-7872610661E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55EA0A2-8803-E74A-9365-2437184DF4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="177">
   <si>
     <t>Scout Name</t>
   </si>
@@ -523,6 +523,48 @@
   <si>
     <t>qm21</t>
   </si>
+  <si>
+    <t>qm22</t>
+  </si>
+  <si>
+    <t>Couldn’t see</t>
+  </si>
+  <si>
+    <t>qm23</t>
+  </si>
+  <si>
+    <t>Didn’t shoot</t>
+  </si>
+  <si>
+    <t>qm24</t>
+  </si>
+  <si>
+    <t>qm25</t>
+  </si>
+  <si>
+    <t>qm26</t>
+  </si>
+  <si>
+    <t>qm27</t>
+  </si>
+  <si>
+    <t>Only taxied</t>
+  </si>
+  <si>
+    <t>qm28</t>
+  </si>
+  <si>
+    <t>qm29</t>
+  </si>
+  <si>
+    <t>Not playing match, roborio broke :(</t>
+  </si>
+  <si>
+    <t>qm30</t>
+  </si>
+  <si>
+    <t>missed upper hub</t>
+  </si>
 </sst>
 </file>
 
@@ -810,10 +852,10 @@
   <dimension ref="A1:AP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Z93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB120" sqref="AB120:AK125"/>
+      <selection pane="bottomRight" activeCell="Y178" sqref="Y178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9655,7 +9697,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
-      <c r="AB120" s="2">
+      <c r="AB120" s="3">
         <v>0</v>
       </c>
       <c r="AC120" s="2"/>
@@ -9761,7 +9803,9 @@
         <v>0</v>
       </c>
       <c r="AL121" s="2"/>
-      <c r="AM121" s="2"/>
+      <c r="AM121" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
@@ -9929,7 +9973,9 @@
         <v>0</v>
       </c>
       <c r="AL123" s="2"/>
-      <c r="AM123" s="2"/>
+      <c r="AM123" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
@@ -10080,52 +10126,90 @@
       <c r="AM125" s="2"/>
     </row>
     <row r="126" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+      <c r="A126" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="L126" s="2">
+        <v>0</v>
+      </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
-      <c r="S126" s="3"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
+      <c r="S126" s="2">
+        <v>0</v>
+      </c>
+      <c r="T126" s="2">
+        <v>0</v>
+      </c>
+      <c r="U126" s="2">
+        <v>0</v>
+      </c>
       <c r="V126" s="3"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
-      <c r="AB126" s="3"/>
+      <c r="AB126" s="2">
+        <v>0</v>
+      </c>
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
-      <c r="AE126" s="3"/>
+      <c r="AE126" s="2">
+        <v>0</v>
+      </c>
       <c r="AF126" s="2"/>
       <c r="AG126" s="2"/>
-      <c r="AH126" s="3"/>
-      <c r="AI126" s="3"/>
+      <c r="AH126" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
-      <c r="AK126" s="3"/>
+      <c r="AK126" s="2">
+        <v>0</v>
+      </c>
       <c r="AL126" s="2"/>
       <c r="AM126" s="2"/>
     </row>
     <row r="127" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="2">
+        <v>8326</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="2">
+        <v>2</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -10133,211 +10217,419 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
+      <c r="M127" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="3"/>
-      <c r="U127" s="2"/>
+      <c r="S127" s="2">
+        <v>0</v>
+      </c>
+      <c r="T127" s="2">
+        <v>0</v>
+      </c>
+      <c r="U127" s="2">
+        <v>0</v>
+      </c>
       <c r="V127" s="3"/>
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
-      <c r="AB127" s="3"/>
+      <c r="AB127" s="2">
+        <v>0</v>
+      </c>
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
-      <c r="AE127" s="3"/>
+      <c r="AE127" s="2">
+        <v>0</v>
+      </c>
       <c r="AF127" s="2"/>
       <c r="AG127" s="2"/>
-      <c r="AH127" s="3"/>
-      <c r="AI127" s="3"/>
+      <c r="AH127" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="2"/>
       <c r="AJ127" s="2"/>
-      <c r="AK127" s="3"/>
+      <c r="AK127" s="2">
+        <v>0</v>
+      </c>
       <c r="AL127" s="2"/>
       <c r="AM127" s="2"/>
     </row>
     <row r="128" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
+      <c r="A128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4242</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="2">
+        <v>2</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0</v>
+      </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="L128" s="2">
+        <v>1</v>
+      </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
-      <c r="S128" s="3"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
+      <c r="S128" s="2">
+        <v>5</v>
+      </c>
+      <c r="T128" s="2">
+        <v>0</v>
+      </c>
+      <c r="U128" s="2">
+        <v>0</v>
+      </c>
       <c r="V128" s="3"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
-      <c r="AB128" s="3"/>
+      <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
-      <c r="AE128" s="3"/>
-      <c r="AF128" s="2"/>
-      <c r="AG128" s="2"/>
-      <c r="AH128" s="3"/>
-      <c r="AI128" s="3"/>
-      <c r="AJ128" s="2"/>
-      <c r="AK128" s="3"/>
+      <c r="AE128" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF128" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG128" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH128" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ128" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK128" s="2">
+        <v>0</v>
+      </c>
       <c r="AL128" s="2"/>
       <c r="AM128" s="2"/>
     </row>
     <row r="129" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="A129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="2">
+        <v>3</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>2</v>
+      </c>
+      <c r="I129" s="2">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
+        <v>1</v>
+      </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="3"/>
-      <c r="U129" s="2"/>
+      <c r="S129" s="2">
+        <v>1</v>
+      </c>
+      <c r="T129" s="2">
+        <v>1</v>
+      </c>
+      <c r="U129" s="2">
+        <v>1</v>
+      </c>
       <c r="V129" s="3"/>
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
-      <c r="AB129" s="3"/>
+      <c r="AB129" s="2">
+        <v>0</v>
+      </c>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="2"/>
-      <c r="AE129" s="3"/>
+      <c r="AD129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="2">
+        <v>0</v>
+      </c>
       <c r="AF129" s="2"/>
-      <c r="AG129" s="2"/>
-      <c r="AH129" s="3"/>
-      <c r="AI129" s="3"/>
-      <c r="AJ129" s="2"/>
-      <c r="AK129" s="3"/>
+      <c r="AG129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="2"/>
+      <c r="AJ129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK129" s="2">
+        <v>0</v>
+      </c>
       <c r="AL129" s="2"/>
-      <c r="AM129" s="2"/>
+      <c r="AM129" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
+      <c r="A130" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="2">
+        <v>888</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0</v>
+      </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
-      <c r="S130" s="3"/>
+      <c r="S130" s="2">
+        <v>8</v>
+      </c>
       <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
+      <c r="U130" s="2">
+        <v>1</v>
+      </c>
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
-      <c r="AB130" s="3"/>
+      <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
-      <c r="AE130" s="3"/>
-      <c r="AF130" s="2"/>
-      <c r="AG130" s="2"/>
-      <c r="AH130" s="3"/>
-      <c r="AI130" s="3"/>
-      <c r="AJ130" s="2"/>
-      <c r="AK130" s="3"/>
-      <c r="AL130" s="2"/>
-      <c r="AM130" s="2"/>
+      <c r="AE130" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF130" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG130" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH130" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI130" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ130" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK130" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL130" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM130" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="131" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1</v>
+      </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="3"/>
-      <c r="U131" s="2"/>
+      <c r="S131" s="2">
+        <v>2</v>
+      </c>
+      <c r="T131" s="2">
+        <v>0</v>
+      </c>
+      <c r="U131" s="2">
+        <v>1</v>
+      </c>
       <c r="V131" s="3"/>
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
-      <c r="AB131" s="3"/>
+      <c r="AB131" s="2">
+        <v>0</v>
+      </c>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="2"/>
-      <c r="AE131" s="3"/>
-      <c r="AF131" s="2"/>
-      <c r="AG131" s="2"/>
-      <c r="AH131" s="3"/>
-      <c r="AI131" s="3"/>
-      <c r="AJ131" s="2"/>
-      <c r="AK131" s="3"/>
+      <c r="AD131" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF131" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG131" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH131" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI131" s="2"/>
+      <c r="AJ131" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK131" s="2">
+        <v>0</v>
+      </c>
       <c r="AL131" s="2"/>
-      <c r="AM131" s="2"/>
+      <c r="AM131" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="A132" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4505</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
+      <c r="L132" s="2">
+        <v>0</v>
+      </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -10345,1266 +10637,2486 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
+      <c r="T132" s="2">
+        <v>2</v>
+      </c>
+      <c r="U132" s="2">
+        <v>2</v>
+      </c>
       <c r="V132" s="3"/>
       <c r="W132" s="2"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
-      <c r="AB132" s="3"/>
+      <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
-      <c r="AE132" s="3"/>
-      <c r="AF132" s="2"/>
-      <c r="AG132" s="2"/>
-      <c r="AH132" s="3"/>
-      <c r="AI132" s="3"/>
+      <c r="AE132" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG132" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH132" s="2"/>
+      <c r="AI132" s="2"/>
       <c r="AJ132" s="2"/>
-      <c r="AK132" s="3"/>
+      <c r="AK132" s="2"/>
       <c r="AL132" s="2"/>
       <c r="AM132" s="2"/>
     </row>
     <row r="133" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
+      <c r="A133" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>1</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2">
+        <v>1</v>
+      </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="3"/>
-      <c r="U133" s="2"/>
+      <c r="S133" s="2">
+        <v>0</v>
+      </c>
+      <c r="T133" s="2">
+        <v>3</v>
+      </c>
+      <c r="U133" s="2">
+        <v>3</v>
+      </c>
       <c r="V133" s="3"/>
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
-      <c r="AB133" s="3"/>
+      <c r="AB133" s="2">
+        <v>0</v>
+      </c>
       <c r="AC133" s="2"/>
-      <c r="AD133" s="2"/>
-      <c r="AE133" s="3"/>
+      <c r="AD133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="2">
+        <v>0</v>
+      </c>
       <c r="AF133" s="2"/>
-      <c r="AG133" s="2"/>
-      <c r="AH133" s="3"/>
-      <c r="AI133" s="3"/>
-      <c r="AJ133" s="2"/>
-      <c r="AK133" s="3"/>
+      <c r="AG133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI133" s="2"/>
+      <c r="AJ133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="2">
+        <v>0</v>
+      </c>
       <c r="AL133" s="2"/>
-      <c r="AM133" s="2"/>
+      <c r="AM133" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="A134" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C134" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1</v>
+      </c>
+      <c r="L134" s="2">
+        <v>1</v>
+      </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
-      <c r="S134" s="3"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2"/>
+      <c r="S134" s="2">
+        <v>1</v>
+      </c>
+      <c r="T134" s="2">
+        <v>11</v>
+      </c>
+      <c r="U134" s="2">
+        <v>3</v>
+      </c>
       <c r="V134" s="3"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
-      <c r="AB134" s="3"/>
+      <c r="AB134" s="2">
+        <v>0</v>
+      </c>
       <c r="AC134" s="2"/>
-      <c r="AD134" s="2"/>
-      <c r="AE134" s="3"/>
-      <c r="AF134" s="2"/>
-      <c r="AG134" s="2"/>
-      <c r="AH134" s="3"/>
-      <c r="AI134" s="3"/>
-      <c r="AJ134" s="2"/>
-      <c r="AK134" s="3"/>
+      <c r="AD134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG134" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI134" s="2"/>
+      <c r="AJ134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="2">
+        <v>0</v>
+      </c>
       <c r="AL134" s="2"/>
-      <c r="AM134" s="2"/>
+      <c r="AM134" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
+      <c r="A135" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2912</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
+      <c r="L135" s="2">
+        <v>1</v>
+      </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
-      <c r="S135" s="3"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2"/>
+      <c r="S135" s="2">
+        <v>2</v>
+      </c>
+      <c r="T135" s="2">
+        <v>0</v>
+      </c>
+      <c r="U135" s="2">
+        <v>2</v>
+      </c>
       <c r="V135" s="3"/>
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
-      <c r="AB135" s="3"/>
+      <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
-      <c r="AE135" s="3"/>
+      <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
       <c r="AG135" s="2"/>
-      <c r="AH135" s="3"/>
-      <c r="AI135" s="3"/>
+      <c r="AH135" s="2"/>
+      <c r="AI135" s="2"/>
       <c r="AJ135" s="2"/>
-      <c r="AK135" s="3"/>
+      <c r="AK135" s="2">
+        <v>0</v>
+      </c>
       <c r="AL135" s="2"/>
       <c r="AM135" s="2"/>
     </row>
     <row r="136" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
+      <c r="A136" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="2">
+        <v>3793</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
+      <c r="M136" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
-      <c r="S136" s="3"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2"/>
+      <c r="S136" s="2">
+        <v>0</v>
+      </c>
+      <c r="T136" s="2">
+        <v>0</v>
+      </c>
+      <c r="U136" s="2">
+        <v>0</v>
+      </c>
       <c r="V136" s="3"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
-      <c r="AB136" s="3"/>
+      <c r="AB136" s="2">
+        <v>0</v>
+      </c>
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
-      <c r="AE136" s="3"/>
+      <c r="AE136" s="2">
+        <v>0</v>
+      </c>
       <c r="AF136" s="2"/>
       <c r="AG136" s="2"/>
-      <c r="AH136" s="3"/>
-      <c r="AI136" s="3"/>
+      <c r="AH136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="2"/>
       <c r="AJ136" s="2"/>
-      <c r="AK136" s="3"/>
+      <c r="AK136" s="2">
+        <v>0</v>
+      </c>
       <c r="AL136" s="2"/>
       <c r="AM136" s="2"/>
     </row>
     <row r="137" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
+      <c r="A137" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="2">
+        <v>8622</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2">
+        <v>0</v>
+      </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
-      <c r="T137" s="2"/>
-      <c r="U137" s="2"/>
+      <c r="S137" s="2">
+        <v>0</v>
+      </c>
+      <c r="T137" s="2">
+        <v>0</v>
+      </c>
+      <c r="U137" s="2">
+        <v>1</v>
+      </c>
       <c r="V137" s="3"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
-      <c r="AB137" s="3"/>
+      <c r="AB137" s="2">
+        <v>0</v>
+      </c>
       <c r="AC137" s="2"/>
-      <c r="AD137" s="2"/>
-      <c r="AE137" s="3"/>
+      <c r="AD137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="2">
+        <v>0</v>
+      </c>
       <c r="AF137" s="2"/>
-      <c r="AG137" s="2"/>
-      <c r="AH137" s="3"/>
-      <c r="AI137" s="3"/>
-      <c r="AJ137" s="2"/>
-      <c r="AK137" s="3"/>
+      <c r="AG137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="2"/>
+      <c r="AJ137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK137" s="2">
+        <v>0</v>
+      </c>
       <c r="AL137" s="2"/>
-      <c r="AM137" s="2"/>
+      <c r="AM137" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
+      <c r="A138" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="2">
+        <v>620</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0</v>
+      </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
+      <c r="L138" s="2">
+        <v>1</v>
+      </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="3"/>
-      <c r="U138" s="2"/>
+      <c r="S138" s="3">
+        <v>0</v>
+      </c>
+      <c r="T138" s="2">
+        <v>5</v>
+      </c>
+      <c r="U138" s="3">
+        <v>0</v>
+      </c>
       <c r="V138" s="3"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
-      <c r="AB138" s="3"/>
+      <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
-      <c r="AE138" s="3"/>
+      <c r="AE138" s="2">
+        <v>1</v>
+      </c>
       <c r="AF138" s="2"/>
       <c r="AG138" s="2"/>
-      <c r="AH138" s="3"/>
-      <c r="AI138" s="3"/>
-      <c r="AJ138" s="2"/>
-      <c r="AK138" s="3"/>
+      <c r="AH138" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI138" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="2">
+        <v>6</v>
+      </c>
+      <c r="AK138" s="2"/>
       <c r="AL138" s="2"/>
       <c r="AM138" s="2"/>
     </row>
     <row r="139" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
+      <c r="A139" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="2">
+        <v>5830</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="2">
+        <v>2</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0</v>
+      </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="L139" s="2">
+        <v>1</v>
+      </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
-      <c r="S139" s="3"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
+      <c r="S139" s="2">
+        <v>0</v>
+      </c>
+      <c r="T139" s="2">
+        <v>1</v>
+      </c>
+      <c r="U139" s="2">
+        <v>2</v>
+      </c>
       <c r="V139" s="3"/>
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
-      <c r="AB139" s="3"/>
+      <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
-      <c r="AE139" s="3"/>
+      <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
       <c r="AG139" s="2"/>
-      <c r="AH139" s="3"/>
-      <c r="AI139" s="3"/>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2"/>
       <c r="AJ139" s="2"/>
-      <c r="AK139" s="3"/>
+      <c r="AK139" s="2"/>
       <c r="AL139" s="2"/>
       <c r="AM139" s="2"/>
     </row>
     <row r="140" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="A140" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="2">
+        <v>612</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="2">
+        <v>3</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>1</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2">
+        <v>1</v>
+      </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
-      <c r="S140" s="3"/>
-      <c r="T140" s="2"/>
-      <c r="U140" s="2"/>
+      <c r="S140" s="2">
+        <v>0</v>
+      </c>
+      <c r="T140" s="2">
+        <v>2</v>
+      </c>
+      <c r="U140" s="2">
+        <v>0</v>
+      </c>
       <c r="V140" s="3"/>
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
-      <c r="AB140" s="3"/>
+      <c r="AB140" s="2">
+        <v>0</v>
+      </c>
       <c r="AC140" s="2"/>
-      <c r="AD140" s="2"/>
-      <c r="AE140" s="3"/>
-      <c r="AF140" s="2"/>
-      <c r="AG140" s="2"/>
-      <c r="AH140" s="3"/>
-      <c r="AI140" s="3"/>
-      <c r="AJ140" s="2"/>
-      <c r="AK140" s="3"/>
+      <c r="AD140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF140" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG140" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI140" s="2"/>
+      <c r="AJ140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK140" s="2">
+        <v>0</v>
+      </c>
       <c r="AL140" s="2"/>
       <c r="AM140" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
+      <c r="A141" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" s="2">
+        <v>836</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="2">
+        <v>2</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <v>1</v>
+      </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="L141" s="2">
+        <v>1</v>
+      </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
-      <c r="S141" s="3"/>
-      <c r="T141" s="2"/>
-      <c r="U141" s="2"/>
+      <c r="S141" s="2">
+        <v>1</v>
+      </c>
+      <c r="T141" s="2">
+        <v>6</v>
+      </c>
+      <c r="U141" s="2">
+        <v>0</v>
+      </c>
       <c r="V141" s="3"/>
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
-      <c r="AB141" s="3"/>
+      <c r="AB141" s="2">
+        <v>0</v>
+      </c>
       <c r="AC141" s="2"/>
       <c r="AD141" s="2"/>
-      <c r="AE141" s="3"/>
-      <c r="AF141" s="2"/>
-      <c r="AG141" s="2"/>
-      <c r="AH141" s="3"/>
-      <c r="AI141" s="3"/>
-      <c r="AJ141" s="2"/>
-      <c r="AK141" s="3"/>
+      <c r="AE141" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF141" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG141" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH141" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI141" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ141" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK141" s="2">
+        <v>0</v>
+      </c>
       <c r="AL141" s="2"/>
       <c r="AM141" s="2"/>
     </row>
     <row r="142" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="A142" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2">
+        <v>611</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" s="2">
+        <v>3</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>1</v>
+      </c>
+      <c r="I142" s="2">
+        <v>1</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2">
+        <v>1</v>
+      </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
-      <c r="S142" s="3"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2"/>
+      <c r="S142" s="2">
+        <v>1</v>
+      </c>
+      <c r="T142" s="2">
+        <v>0</v>
+      </c>
+      <c r="U142" s="2">
+        <v>1</v>
+      </c>
       <c r="V142" s="3"/>
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
-      <c r="AB142" s="3"/>
+      <c r="AB142" s="2">
+        <v>0</v>
+      </c>
       <c r="AC142" s="2"/>
-      <c r="AD142" s="2"/>
-      <c r="AE142" s="3"/>
+      <c r="AD142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="2">
+        <v>0</v>
+      </c>
       <c r="AF142" s="2"/>
-      <c r="AG142" s="2"/>
-      <c r="AH142" s="3"/>
-      <c r="AI142" s="3"/>
-      <c r="AJ142" s="2"/>
-      <c r="AK142" s="3"/>
+      <c r="AG142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI142" s="2"/>
+      <c r="AJ142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK142" s="2">
+        <v>0</v>
+      </c>
       <c r="AL142" s="2"/>
-      <c r="AM142" s="2"/>
+      <c r="AM142" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
+      <c r="A143" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1895</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0</v>
+      </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="3"/>
-      <c r="U143" s="2"/>
+      <c r="S143" s="2">
+        <v>0</v>
+      </c>
+      <c r="T143" s="2">
+        <v>0</v>
+      </c>
+      <c r="U143" s="2">
+        <v>0</v>
+      </c>
       <c r="V143" s="3"/>
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
-      <c r="AB143" s="3"/>
+      <c r="AB143" s="2">
+        <v>0</v>
+      </c>
       <c r="AC143" s="2"/>
-      <c r="AD143" s="2"/>
-      <c r="AE143" s="3"/>
+      <c r="AD143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE143" s="2">
+        <v>1</v>
+      </c>
       <c r="AF143" s="2"/>
-      <c r="AG143" s="2"/>
-      <c r="AH143" s="3"/>
-      <c r="AI143" s="3"/>
-      <c r="AJ143" s="2"/>
-      <c r="AK143" s="3"/>
+      <c r="AG143" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI143" s="2"/>
+      <c r="AJ143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK143" s="2">
+        <v>0</v>
+      </c>
       <c r="AL143" s="2"/>
-      <c r="AM143" s="2"/>
+      <c r="AM143" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="A144" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2">
+        <v>0</v>
+      </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="3"/>
-      <c r="U144" s="2"/>
+      <c r="S144" s="2">
+        <v>0</v>
+      </c>
+      <c r="T144" s="2">
+        <v>0</v>
+      </c>
+      <c r="U144" s="2">
+        <v>0</v>
+      </c>
       <c r="V144" s="3"/>
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
-      <c r="AB144" s="3"/>
+      <c r="AB144" s="2">
+        <v>0</v>
+      </c>
       <c r="AC144" s="2"/>
-      <c r="AD144" s="2"/>
-      <c r="AE144" s="3"/>
+      <c r="AD144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="2">
+        <v>0</v>
+      </c>
       <c r="AF144" s="2"/>
-      <c r="AG144" s="2"/>
-      <c r="AH144" s="3"/>
-      <c r="AI144" s="3"/>
-      <c r="AJ144" s="2"/>
-      <c r="AK144" s="3"/>
+      <c r="AG144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="2"/>
+      <c r="AJ144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK144" s="2">
+        <v>0</v>
+      </c>
       <c r="AL144" s="2"/>
       <c r="AM144" s="2"/>
     </row>
     <row r="145" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
+      <c r="A145" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2912</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" s="2">
+        <v>2</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0</v>
+      </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="L145" s="2">
+        <v>1</v>
+      </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="3"/>
-      <c r="U145" s="2"/>
+      <c r="S145" s="2">
+        <v>5</v>
+      </c>
+      <c r="T145" s="2">
+        <v>0</v>
+      </c>
+      <c r="U145" s="2">
+        <v>6</v>
+      </c>
       <c r="V145" s="3"/>
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
-      <c r="AB145" s="3"/>
+      <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
       <c r="AD145" s="2"/>
-      <c r="AE145" s="3"/>
-      <c r="AF145" s="2"/>
-      <c r="AG145" s="2"/>
-      <c r="AH145" s="3"/>
-      <c r="AI145" s="3"/>
+      <c r="AE145" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF145" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG145" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH145" s="2"/>
+      <c r="AI145" s="2"/>
       <c r="AJ145" s="2"/>
-      <c r="AK145" s="3"/>
+      <c r="AK145" s="2"/>
       <c r="AL145" s="2"/>
       <c r="AM145" s="2"/>
     </row>
     <row r="146" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
+      <c r="A146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="2">
+        <v>4242</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="2">
+        <v>3</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2">
+        <v>1</v>
+      </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="3"/>
-      <c r="U146" s="2"/>
+      <c r="S146" s="2">
+        <v>0</v>
+      </c>
+      <c r="T146" s="2">
+        <v>0</v>
+      </c>
+      <c r="U146" s="2">
+        <v>0</v>
+      </c>
       <c r="V146" s="3"/>
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
-      <c r="AB146" s="3"/>
+      <c r="AB146" s="2">
+        <v>0</v>
+      </c>
       <c r="AC146" s="2"/>
-      <c r="AD146" s="2"/>
-      <c r="AE146" s="3"/>
-      <c r="AF146" s="2"/>
-      <c r="AG146" s="2"/>
-      <c r="AH146" s="3"/>
-      <c r="AI146" s="3"/>
-      <c r="AJ146" s="2"/>
-      <c r="AK146" s="3"/>
+      <c r="AD146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF146" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG146" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH146" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI146" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ146" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK146" s="2">
+        <v>0</v>
+      </c>
       <c r="AL146" s="2"/>
       <c r="AM146" s="2"/>
     </row>
     <row r="147" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
+      <c r="A147" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" s="2">
+        <v>3</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2">
+        <v>1</v>
+      </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
-      <c r="S147" s="3"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2"/>
+      <c r="S147" s="2">
+        <v>0</v>
+      </c>
+      <c r="T147" s="2">
+        <v>5</v>
+      </c>
+      <c r="U147" s="2">
+        <v>3</v>
+      </c>
       <c r="V147" s="3"/>
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
-      <c r="AB147" s="3"/>
+      <c r="AB147" s="2">
+        <v>0</v>
+      </c>
       <c r="AC147" s="2"/>
-      <c r="AD147" s="2"/>
-      <c r="AE147" s="3"/>
+      <c r="AD147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="2">
+        <v>0</v>
+      </c>
       <c r="AF147" s="2"/>
-      <c r="AG147" s="2"/>
-      <c r="AH147" s="3"/>
-      <c r="AI147" s="3"/>
-      <c r="AJ147" s="2"/>
-      <c r="AK147" s="3"/>
+      <c r="AG147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="2"/>
+      <c r="AJ147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK147" s="2">
+        <v>0</v>
+      </c>
       <c r="AL147" s="2"/>
       <c r="AM147" s="2"/>
     </row>
     <row r="148" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
+      <c r="A148" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+      <c r="G148" s="2">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0</v>
+      </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
+      <c r="L148" s="2">
+        <v>1</v>
+      </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2"/>
+      <c r="S148" s="2">
+        <v>2</v>
+      </c>
+      <c r="T148" s="2">
+        <v>0</v>
+      </c>
+      <c r="U148" s="2">
+        <v>0</v>
+      </c>
       <c r="V148" s="3"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
-      <c r="AB148" s="3"/>
+      <c r="AB148" s="2">
+        <v>0</v>
+      </c>
       <c r="AC148" s="2"/>
       <c r="AD148" s="2"/>
-      <c r="AE148" s="3"/>
-      <c r="AF148" s="2"/>
-      <c r="AG148" s="2"/>
-      <c r="AH148" s="3"/>
-      <c r="AI148" s="3"/>
+      <c r="AE148" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF148" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG148" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="2"/>
       <c r="AJ148" s="2"/>
-      <c r="AK148" s="3"/>
+      <c r="AK148" s="2">
+        <v>0</v>
+      </c>
       <c r="AL148" s="2"/>
       <c r="AM148" s="2"/>
     </row>
     <row r="149" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="A149" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3793</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0</v>
+      </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
+      <c r="S149" s="2">
+        <v>2</v>
+      </c>
+      <c r="T149" s="2">
+        <v>0</v>
+      </c>
+      <c r="U149" s="2">
+        <v>1</v>
+      </c>
       <c r="V149" s="3"/>
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
-      <c r="AB149" s="3"/>
+      <c r="AB149" s="2">
+        <v>0</v>
+      </c>
       <c r="AC149" s="2"/>
-      <c r="AD149" s="2"/>
-      <c r="AE149" s="3"/>
+      <c r="AD149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="2">
+        <v>0</v>
+      </c>
       <c r="AF149" s="2"/>
-      <c r="AG149" s="2"/>
-      <c r="AH149" s="3"/>
-      <c r="AI149" s="3"/>
-      <c r="AJ149" s="2"/>
-      <c r="AK149" s="3"/>
+      <c r="AG149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI149" s="2"/>
+      <c r="AJ149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK149" s="2">
+        <v>0</v>
+      </c>
       <c r="AL149" s="2"/>
       <c r="AM149" s="2"/>
     </row>
     <row r="150" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
+      <c r="A150" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150" s="2">
+        <v>8622</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2">
+        <v>0</v>
+      </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
+      <c r="S150" s="2">
+        <v>0</v>
+      </c>
+      <c r="T150" s="2">
+        <v>0</v>
+      </c>
+      <c r="U150" s="2">
+        <v>0</v>
+      </c>
       <c r="V150" s="3"/>
       <c r="W150" s="2"/>
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
-      <c r="AB150" s="3"/>
+      <c r="AB150" s="2">
+        <v>0</v>
+      </c>
       <c r="AC150" s="2"/>
-      <c r="AD150" s="2"/>
-      <c r="AE150" s="3"/>
+      <c r="AD150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE150" s="2">
+        <v>0</v>
+      </c>
       <c r="AF150" s="2"/>
-      <c r="AG150" s="2"/>
-      <c r="AH150" s="3"/>
-      <c r="AI150" s="3"/>
-      <c r="AJ150" s="2"/>
-      <c r="AK150" s="3"/>
+      <c r="AG150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="2"/>
+      <c r="AJ150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK150" s="2">
+        <v>0</v>
+      </c>
       <c r="AL150" s="2"/>
-      <c r="AM150" s="2"/>
+      <c r="AM150" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+      <c r="A151" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" s="2">
+        <v>5830</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0</v>
+      </c>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
+      <c r="L151" s="2">
+        <v>1</v>
+      </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
-      <c r="S151" s="3"/>
-      <c r="T151" s="2"/>
-      <c r="U151" s="2"/>
+      <c r="S151" s="2">
+        <v>0</v>
+      </c>
+      <c r="T151" s="2">
+        <v>2</v>
+      </c>
+      <c r="U151" s="2">
+        <v>1</v>
+      </c>
       <c r="V151" s="3"/>
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
-      <c r="AB151" s="3"/>
+      <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
       <c r="AD151" s="2"/>
-      <c r="AE151" s="3"/>
-      <c r="AF151" s="2"/>
-      <c r="AG151" s="2"/>
-      <c r="AH151" s="3"/>
-      <c r="AI151" s="3"/>
+      <c r="AE151" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF151" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG151" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH151" s="2"/>
+      <c r="AI151" s="2"/>
       <c r="AJ151" s="2"/>
-      <c r="AK151" s="3"/>
+      <c r="AK151" s="2"/>
       <c r="AL151" s="2"/>
       <c r="AM151" s="2"/>
     </row>
     <row r="152" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="A152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="2">
+        <v>836</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2</v>
+      </c>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
       <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="H152" s="2">
+        <v>1</v>
+      </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+      <c r="L152" s="2">
+        <v>1</v>
+      </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
-      <c r="S152" s="3"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2"/>
+      <c r="S152" s="2">
+        <v>0</v>
+      </c>
+      <c r="T152" s="2">
+        <v>11</v>
+      </c>
+      <c r="U152" s="2">
+        <v>2</v>
+      </c>
       <c r="V152" s="3"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
-      <c r="AB152" s="3"/>
+      <c r="AB152" s="2">
+        <v>0</v>
+      </c>
       <c r="AC152" s="2"/>
-      <c r="AD152" s="2"/>
-      <c r="AE152" s="3"/>
+      <c r="AD152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE152" s="2">
+        <v>0</v>
+      </c>
       <c r="AF152" s="2"/>
-      <c r="AG152" s="2"/>
-      <c r="AH152" s="3"/>
-      <c r="AI152" s="3"/>
-      <c r="AJ152" s="2"/>
-      <c r="AK152" s="3"/>
+      <c r="AG152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI152" s="2"/>
+      <c r="AJ152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK152" s="2">
+        <v>0</v>
+      </c>
       <c r="AL152" s="2"/>
-      <c r="AM152" s="2"/>
+      <c r="AM152" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
+      <c r="A153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C153" s="2">
+        <v>8326</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E153" s="2">
+        <v>3</v>
+      </c>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2">
+        <v>1</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
-      <c r="S153" s="3"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2"/>
+      <c r="S153" s="2">
+        <v>0</v>
+      </c>
+      <c r="T153" s="2">
+        <v>0</v>
+      </c>
+      <c r="U153" s="2">
+        <v>0</v>
+      </c>
       <c r="V153" s="3"/>
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
-      <c r="AB153" s="3"/>
+      <c r="AB153" s="2">
+        <v>0</v>
+      </c>
       <c r="AC153" s="2"/>
       <c r="AD153" s="2"/>
-      <c r="AE153" s="3"/>
+      <c r="AE153" s="2">
+        <v>0</v>
+      </c>
       <c r="AF153" s="2"/>
       <c r="AG153" s="2"/>
-      <c r="AH153" s="3"/>
-      <c r="AI153" s="3"/>
+      <c r="AH153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI153" s="2"/>
       <c r="AJ153" s="2"/>
-      <c r="AK153" s="3"/>
+      <c r="AK153" s="2">
+        <v>0</v>
+      </c>
       <c r="AL153" s="2"/>
       <c r="AM153" s="2"/>
     </row>
     <row r="154" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+      <c r="A154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1895</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" s="2">
+        <v>2</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="L154" s="2">
+        <v>0</v>
+      </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="3"/>
-      <c r="U154" s="2"/>
+      <c r="S154" s="2">
+        <v>0</v>
+      </c>
+      <c r="T154" s="2">
+        <v>2</v>
+      </c>
+      <c r="U154" s="2">
+        <v>0</v>
+      </c>
       <c r="V154" s="3"/>
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
-      <c r="AB154" s="3"/>
+      <c r="AB154" s="2">
+        <v>0</v>
+      </c>
       <c r="AC154" s="2"/>
       <c r="AD154" s="2"/>
-      <c r="AE154" s="3"/>
+      <c r="AE154" s="2">
+        <v>0</v>
+      </c>
       <c r="AF154" s="2"/>
       <c r="AG154" s="2"/>
-      <c r="AH154" s="3"/>
-      <c r="AI154" s="3"/>
+      <c r="AH154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI154" s="2"/>
       <c r="AJ154" s="2"/>
-      <c r="AK154" s="3"/>
+      <c r="AK154" s="2">
+        <v>0</v>
+      </c>
       <c r="AL154" s="2"/>
       <c r="AM154" s="2"/>
     </row>
     <row r="155" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
+      <c r="A155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" s="2">
+        <v>3</v>
+      </c>
+      <c r="F155" s="2">
+        <v>1</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2">
+        <v>1</v>
+      </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
-      <c r="S155" s="3"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
+      <c r="S155" s="2">
+        <v>0</v>
+      </c>
+      <c r="T155" s="2">
+        <v>2</v>
+      </c>
+      <c r="U155" s="2">
+        <v>2</v>
+      </c>
       <c r="V155" s="3"/>
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
-      <c r="AB155" s="3"/>
+      <c r="AB155" s="2">
+        <v>0</v>
+      </c>
       <c r="AC155" s="2"/>
-      <c r="AD155" s="2"/>
-      <c r="AE155" s="3"/>
+      <c r="AD155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE155" s="2">
+        <v>0</v>
+      </c>
       <c r="AF155" s="2"/>
-      <c r="AG155" s="2"/>
-      <c r="AH155" s="3"/>
-      <c r="AI155" s="3"/>
-      <c r="AJ155" s="2"/>
-      <c r="AK155" s="3"/>
+      <c r="AG155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI155" s="2"/>
+      <c r="AJ155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK155" s="2">
+        <v>0</v>
+      </c>
       <c r="AL155" s="2"/>
-      <c r="AM155" s="2"/>
+      <c r="AM155" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="A156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156" s="2">
+        <v>888</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" s="2">
+        <v>2</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
+      <c r="G156" s="2">
+        <v>2</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
+      <c r="L156" s="2">
+        <v>1</v>
+      </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="3"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2"/>
+      <c r="S156" s="2">
+        <v>4</v>
+      </c>
+      <c r="T156" s="2">
+        <v>0</v>
+      </c>
+      <c r="U156" s="2">
+        <v>0</v>
+      </c>
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
       <c r="X156" s="3"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
-      <c r="AB156" s="3"/>
+      <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
       <c r="AD156" s="2"/>
-      <c r="AE156" s="3"/>
+      <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
       <c r="AG156" s="2"/>
-      <c r="AH156" s="3"/>
-      <c r="AI156" s="3"/>
+      <c r="AH156" s="2"/>
+      <c r="AI156" s="2"/>
       <c r="AJ156" s="2"/>
-      <c r="AK156" s="3"/>
+      <c r="AK156" s="2">
+        <v>1</v>
+      </c>
       <c r="AL156" s="2"/>
       <c r="AM156" s="2"/>
     </row>
     <row r="157" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C157" s="2">
+        <v>612</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" s="2">
+        <v>2</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
+      <c r="L157" s="2">
+        <v>1</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="3"/>
-      <c r="U157" s="2"/>
+      <c r="S157" s="2">
+        <v>0</v>
+      </c>
+      <c r="T157" s="2">
+        <v>0</v>
+      </c>
+      <c r="U157" s="2">
+        <v>0</v>
+      </c>
       <c r="V157" s="3"/>
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
-      <c r="AB157" s="3"/>
+      <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
       <c r="AD157" s="2"/>
-      <c r="AE157" s="3"/>
-      <c r="AF157" s="2"/>
-      <c r="AG157" s="2"/>
-      <c r="AH157" s="3"/>
-      <c r="AI157" s="3"/>
+      <c r="AE157" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF157" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG157" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH157" s="2"/>
+      <c r="AI157" s="2"/>
       <c r="AJ157" s="2"/>
-      <c r="AK157" s="3"/>
+      <c r="AK157" s="2"/>
       <c r="AL157" s="2"/>
       <c r="AM157" s="2"/>
     </row>
     <row r="158" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
+      <c r="A158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" s="2">
+        <v>611</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2">
+        <v>1</v>
+      </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="3"/>
-      <c r="U158" s="2"/>
+      <c r="S158" s="2">
+        <v>0</v>
+      </c>
+      <c r="T158" s="2">
+        <v>0</v>
+      </c>
+      <c r="U158" s="2">
+        <v>0</v>
+      </c>
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
-      <c r="AB158" s="3"/>
+      <c r="AB158" s="2">
+        <v>0</v>
+      </c>
       <c r="AC158" s="2"/>
-      <c r="AD158" s="2"/>
-      <c r="AE158" s="3"/>
+      <c r="AD158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE158" s="2">
+        <v>0</v>
+      </c>
       <c r="AF158" s="2"/>
-      <c r="AG158" s="2"/>
-      <c r="AH158" s="3"/>
-      <c r="AI158" s="3"/>
-      <c r="AJ158" s="2"/>
-      <c r="AK158" s="3"/>
+      <c r="AG158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI158" s="2"/>
+      <c r="AJ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK158" s="2">
+        <v>0</v>
+      </c>
       <c r="AL158" s="2"/>
-      <c r="AM158" s="2"/>
+      <c r="AM158" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+      <c r="A159" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>1</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1</v>
+      </c>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>1</v>
+      </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
-      <c r="S159" s="3"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
+      <c r="S159" s="2">
+        <v>0</v>
+      </c>
+      <c r="T159" s="2">
+        <v>10</v>
+      </c>
+      <c r="U159" s="2">
+        <v>0</v>
+      </c>
       <c r="V159" s="3"/>
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
-      <c r="AB159" s="3"/>
+      <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
       <c r="AD159" s="2"/>
-      <c r="AE159" s="3"/>
+      <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
       <c r="AG159" s="2"/>
-      <c r="AH159" s="3"/>
-      <c r="AI159" s="3"/>
+      <c r="AH159" s="2"/>
+      <c r="AI159" s="2"/>
       <c r="AJ159" s="2"/>
-      <c r="AK159" s="3"/>
+      <c r="AK159" s="2"/>
       <c r="AL159" s="2"/>
       <c r="AM159" s="2"/>
     </row>
     <row r="160" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
+      <c r="A160" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="2">
+        <v>4505</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2">
+        <v>0</v>
+      </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="3"/>
-      <c r="U160" s="2"/>
+      <c r="S160" s="2">
+        <v>0</v>
+      </c>
+      <c r="T160" s="2">
+        <v>1</v>
+      </c>
+      <c r="U160" s="2">
+        <v>1</v>
+      </c>
       <c r="V160" s="3"/>
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
-      <c r="AB160" s="3"/>
+      <c r="AB160" s="2">
+        <v>0</v>
+      </c>
       <c r="AC160" s="2"/>
-      <c r="AD160" s="2"/>
-      <c r="AE160" s="3"/>
-      <c r="AF160" s="2"/>
-      <c r="AG160" s="2"/>
-      <c r="AH160" s="3"/>
-      <c r="AI160" s="3"/>
-      <c r="AJ160" s="2"/>
-      <c r="AK160" s="3"/>
+      <c r="AD160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE160" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF160" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG160" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI160" s="2"/>
+      <c r="AJ160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK160" s="2">
+        <v>0</v>
+      </c>
       <c r="AL160" s="2"/>
-      <c r="AM160" s="2"/>
+      <c r="AM160" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
+      <c r="A161" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" s="2">
+        <v>620</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2">
+        <v>1</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
+      <c r="S161" s="2">
+        <v>0</v>
+      </c>
+      <c r="T161" s="2">
+        <v>2</v>
+      </c>
+      <c r="U161" s="2">
+        <v>1</v>
+      </c>
       <c r="V161" s="3"/>
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
-      <c r="AB161" s="3"/>
+      <c r="AB161" s="2">
+        <v>0</v>
+      </c>
       <c r="AC161" s="2"/>
       <c r="AD161" s="2"/>
-      <c r="AE161" s="3"/>
+      <c r="AE161" s="2">
+        <v>0</v>
+      </c>
       <c r="AF161" s="2"/>
       <c r="AG161" s="2"/>
-      <c r="AH161" s="3"/>
-      <c r="AI161" s="3"/>
-      <c r="AJ161" s="2"/>
-      <c r="AK161" s="3"/>
+      <c r="AH161" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI161" s="2"/>
+      <c r="AJ161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK161" s="3">
+        <v>1</v>
+      </c>
       <c r="AL161" s="2"/>
       <c r="AM161" s="2"/>
     </row>
     <row r="162" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
+      <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="2">
+        <v>3</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2">
+        <v>1</v>
+      </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="2"/>
+      <c r="S162" s="2">
+        <v>0</v>
+      </c>
+      <c r="T162" s="2">
+        <v>0</v>
+      </c>
+      <c r="U162" s="2">
+        <v>0</v>
+      </c>
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
-      <c r="AB162" s="3"/>
+      <c r="AB162" s="2">
+        <v>0</v>
+      </c>
       <c r="AC162" s="2"/>
-      <c r="AD162" s="2"/>
-      <c r="AE162" s="3"/>
+      <c r="AD162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="2">
+        <v>0</v>
+      </c>
       <c r="AF162" s="2"/>
-      <c r="AG162" s="2"/>
-      <c r="AH162" s="3"/>
-      <c r="AI162" s="3"/>
-      <c r="AJ162" s="2"/>
-      <c r="AK162" s="3"/>
+      <c r="AG162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI162" s="2"/>
+      <c r="AJ162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK162" s="2">
+        <v>0</v>
+      </c>
       <c r="AL162" s="2"/>
       <c r="AM162" s="2"/>
     </row>
     <row r="163" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+      <c r="A163" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3793</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="2">
+        <v>2</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0</v>
+      </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -11617,7 +13129,7 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
-      <c r="S163" s="3"/>
+      <c r="S163" s="2"/>
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
       <c r="V163" s="3"/>
@@ -11626,327 +13138,603 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
-      <c r="AB163" s="3"/>
+      <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
       <c r="AD163" s="2"/>
-      <c r="AE163" s="3"/>
+      <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
       <c r="AG163" s="2"/>
-      <c r="AH163" s="3"/>
-      <c r="AI163" s="3"/>
+      <c r="AH163" s="2"/>
+      <c r="AI163" s="2"/>
       <c r="AJ163" s="2"/>
-      <c r="AK163" s="3"/>
+      <c r="AK163" s="2"/>
       <c r="AL163" s="2"/>
       <c r="AM163" s="2"/>
     </row>
     <row r="164" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
+      <c r="A164" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" s="2">
+        <v>2</v>
+      </c>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
+      <c r="G164" s="2">
+        <v>1</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="L164" s="2">
+        <v>1</v>
+      </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="2"/>
+      <c r="S164" s="2">
+        <v>2</v>
+      </c>
+      <c r="T164" s="2">
+        <v>0</v>
+      </c>
+      <c r="U164" s="2">
+        <v>0</v>
+      </c>
       <c r="V164" s="3"/>
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
-      <c r="AB164" s="3"/>
+      <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
       <c r="AD164" s="2"/>
-      <c r="AE164" s="3"/>
-      <c r="AF164" s="2"/>
-      <c r="AG164" s="2"/>
-      <c r="AH164" s="3"/>
-      <c r="AI164" s="3"/>
+      <c r="AE164" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF164" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG164" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH164" s="2"/>
+      <c r="AI164" s="2"/>
       <c r="AJ164" s="2"/>
-      <c r="AK164" s="3"/>
+      <c r="AK164" s="2"/>
       <c r="AL164" s="2"/>
       <c r="AM164" s="2"/>
     </row>
     <row r="165" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
+      <c r="A165" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
       <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
+      <c r="L165" s="2">
+        <v>1</v>
+      </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="2"/>
+      <c r="S165" s="2">
+        <v>0</v>
+      </c>
+      <c r="T165" s="2">
+        <v>4</v>
+      </c>
+      <c r="U165" s="2">
+        <v>3</v>
+      </c>
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
-      <c r="AB165" s="3"/>
+      <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
       <c r="AD165" s="2"/>
-      <c r="AE165" s="3"/>
+      <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
       <c r="AG165" s="2"/>
-      <c r="AH165" s="3"/>
-      <c r="AI165" s="3"/>
+      <c r="AH165" s="2"/>
+      <c r="AI165" s="2"/>
       <c r="AJ165" s="2"/>
-      <c r="AK165" s="3"/>
+      <c r="AK165" s="2"/>
       <c r="AL165" s="2"/>
       <c r="AM165" s="2"/>
     </row>
     <row r="166" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="A166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5830</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+      <c r="F166" s="2">
+        <v>1</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2">
+        <v>1</v>
+      </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
-      <c r="S166" s="3"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
+      <c r="S166" s="2">
+        <v>0</v>
+      </c>
+      <c r="T166" s="2">
+        <v>0</v>
+      </c>
+      <c r="U166" s="2">
+        <v>0</v>
+      </c>
       <c r="V166" s="3"/>
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
-      <c r="AB166" s="3"/>
+      <c r="AB166" s="2">
+        <v>0</v>
+      </c>
       <c r="AC166" s="2"/>
-      <c r="AD166" s="2"/>
-      <c r="AE166" s="3"/>
+      <c r="AD166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE166" s="2">
+        <v>0</v>
+      </c>
       <c r="AF166" s="2"/>
       <c r="AG166" s="2"/>
-      <c r="AH166" s="3"/>
-      <c r="AI166" s="3"/>
-      <c r="AJ166" s="2"/>
-      <c r="AK166" s="3"/>
+      <c r="AH166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="2"/>
+      <c r="AJ166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK166" s="2">
+        <v>0</v>
+      </c>
       <c r="AL166" s="2"/>
       <c r="AM166" s="2"/>
     </row>
     <row r="167" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
+      <c r="A167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167" s="2">
+        <v>836</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" s="2">
+        <v>3</v>
+      </c>
+      <c r="F167" s="2">
+        <v>1</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2">
+        <v>1</v>
+      </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
-      <c r="S167" s="3"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
+      <c r="S167" s="2">
+        <v>0</v>
+      </c>
+      <c r="T167" s="2">
+        <v>0</v>
+      </c>
+      <c r="U167" s="2">
+        <v>0</v>
+      </c>
       <c r="V167" s="3"/>
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
-      <c r="AB167" s="3"/>
+      <c r="AB167" s="2">
+        <v>0</v>
+      </c>
       <c r="AC167" s="2"/>
       <c r="AD167" s="2"/>
-      <c r="AE167" s="3"/>
+      <c r="AE167" s="2">
+        <v>0</v>
+      </c>
       <c r="AF167" s="2"/>
       <c r="AG167" s="2"/>
-      <c r="AH167" s="3"/>
-      <c r="AI167" s="3"/>
+      <c r="AH167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI167" s="2"/>
       <c r="AJ167" s="2"/>
-      <c r="AK167" s="3"/>
+      <c r="AK167" s="2">
+        <v>0</v>
+      </c>
       <c r="AL167" s="2"/>
       <c r="AM167" s="2"/>
     </row>
     <row r="168" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
+      <c r="A168" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168" s="2">
+        <v>3</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
+      <c r="L168" s="2">
+        <v>0</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
-      <c r="S168" s="3"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
+      <c r="S168" s="2">
+        <v>0</v>
+      </c>
+      <c r="T168" s="2">
+        <v>0</v>
+      </c>
+      <c r="U168" s="2">
+        <v>0</v>
+      </c>
       <c r="V168" s="3"/>
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
-      <c r="AB168" s="3"/>
+      <c r="AB168" s="2">
+        <v>0</v>
+      </c>
       <c r="AC168" s="2"/>
-      <c r="AD168" s="2"/>
-      <c r="AE168" s="3"/>
+      <c r="AD168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE168" s="2">
+        <v>0</v>
+      </c>
       <c r="AF168" s="2"/>
-      <c r="AG168" s="2"/>
-      <c r="AH168" s="3"/>
-      <c r="AI168" s="3"/>
-      <c r="AJ168" s="2"/>
-      <c r="AK168" s="3"/>
+      <c r="AG168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="2"/>
+      <c r="AJ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK168" s="2">
+        <v>0</v>
+      </c>
       <c r="AL168" s="2"/>
-      <c r="AM168" s="2"/>
+      <c r="AM168" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
+      <c r="A169" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" s="2">
+        <v>4505</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E169" s="2">
+        <v>2</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
+      <c r="L169" s="2">
+        <v>0</v>
+      </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
-      <c r="S169" s="3"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2"/>
+      <c r="S169" s="2">
+        <v>0</v>
+      </c>
+      <c r="T169" s="2">
+        <v>0</v>
+      </c>
+      <c r="U169" s="2">
+        <v>0</v>
+      </c>
       <c r="V169" s="3"/>
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
-      <c r="AB169" s="3"/>
+      <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
       <c r="AD169" s="2"/>
-      <c r="AE169" s="3"/>
-      <c r="AF169" s="2"/>
-      <c r="AG169" s="2"/>
-      <c r="AH169" s="3"/>
-      <c r="AI169" s="3"/>
+      <c r="AE169" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF169" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG169" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH169" s="2"/>
+      <c r="AI169" s="2"/>
       <c r="AJ169" s="2"/>
-      <c r="AK169" s="3"/>
+      <c r="AK169" s="2"/>
       <c r="AL169" s="2"/>
       <c r="AM169" s="2"/>
     </row>
     <row r="170" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
+      <c r="A170" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" s="2">
+        <v>8622</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2">
+        <v>0</v>
+      </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="2"/>
+      <c r="S170" s="2">
+        <v>0</v>
+      </c>
+      <c r="T170" s="2">
+        <v>0</v>
+      </c>
+      <c r="U170" s="2">
+        <v>0</v>
+      </c>
       <c r="V170" s="3"/>
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
-      <c r="AB170" s="3"/>
+      <c r="AB170" s="2">
+        <v>0</v>
+      </c>
       <c r="AC170" s="2"/>
-      <c r="AD170" s="2"/>
-      <c r="AE170" s="3"/>
+      <c r="AD170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE170" s="2">
+        <v>0</v>
+      </c>
       <c r="AF170" s="2"/>
-      <c r="AG170" s="2"/>
-      <c r="AH170" s="3"/>
-      <c r="AI170" s="3"/>
-      <c r="AJ170" s="2"/>
-      <c r="AK170" s="3"/>
+      <c r="AG170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI170" s="2"/>
+      <c r="AJ170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK170" s="2">
+        <v>0</v>
+      </c>
       <c r="AL170" s="2"/>
-      <c r="AM170" s="2"/>
+      <c r="AM170" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
+      <c r="A171" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1895</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" s="2">
+        <v>2</v>
+      </c>
+      <c r="F171" s="2">
+        <v>0</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
+      <c r="L171" s="2">
+        <v>0</v>
+      </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
-      <c r="S171" s="3"/>
-      <c r="T171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2">
+        <v>1</v>
+      </c>
       <c r="U171" s="2"/>
       <c r="V171" s="3"/>
       <c r="W171" s="2"/>
@@ -11954,113 +13742,219 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
-      <c r="AB171" s="3"/>
+      <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
       <c r="AD171" s="2"/>
-      <c r="AE171" s="3"/>
+      <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
       <c r="AG171" s="2"/>
-      <c r="AH171" s="3"/>
-      <c r="AI171" s="3"/>
+      <c r="AH171" s="2"/>
+      <c r="AI171" s="2"/>
       <c r="AJ171" s="2"/>
-      <c r="AK171" s="3"/>
+      <c r="AK171" s="2"/>
       <c r="AL171" s="2"/>
       <c r="AM171" s="2"/>
     </row>
     <row r="172" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
+      <c r="A172" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" s="2">
+        <v>4242</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172" s="2">
+        <v>0</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
+      <c r="L172" s="2">
+        <v>1</v>
+      </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
-      <c r="S172" s="3"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
+      <c r="S172" s="2">
+        <v>2</v>
+      </c>
+      <c r="T172" s="2">
+        <v>0</v>
+      </c>
+      <c r="U172" s="2">
+        <v>0</v>
+      </c>
       <c r="V172" s="3"/>
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
-      <c r="AB172" s="3"/>
+      <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
       <c r="AD172" s="2"/>
-      <c r="AE172" s="3"/>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="3"/>
-      <c r="AI172" s="3"/>
-      <c r="AJ172" s="2"/>
-      <c r="AK172" s="3"/>
+      <c r="AE172" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF172" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG172" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH172" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI172" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ172" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK172" s="2"/>
       <c r="AL172" s="2"/>
       <c r="AM172" s="2"/>
     </row>
     <row r="173" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" s="2">
+        <v>888</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173" s="2">
+        <v>3</v>
+      </c>
+      <c r="F173" s="2">
+        <v>1</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2">
+        <v>1</v>
+      </c>
+      <c r="J173" s="2">
+        <v>0</v>
+      </c>
+      <c r="K173" s="2">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2">
+        <v>1</v>
+      </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
-      <c r="S173" s="3"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
+      <c r="S173" s="2">
+        <v>4</v>
+      </c>
+      <c r="T173" s="2">
+        <v>0</v>
+      </c>
+      <c r="U173" s="2">
+        <v>1</v>
+      </c>
       <c r="V173" s="3"/>
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
-      <c r="AB173" s="3"/>
+      <c r="AB173" s="2">
+        <v>0</v>
+      </c>
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
-      <c r="AE173" s="3"/>
-      <c r="AF173" s="2"/>
-      <c r="AG173" s="2"/>
-      <c r="AH173" s="3"/>
-      <c r="AI173" s="3"/>
-      <c r="AJ173" s="2"/>
-      <c r="AK173" s="3"/>
+      <c r="AE173" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF173" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG173" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH173" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI173" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ173" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK173" s="2">
+        <v>0</v>
+      </c>
       <c r="AL173" s="2"/>
       <c r="AM173" s="2"/>
     </row>
     <row r="174" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
+      <c r="A174" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="2">
+        <v>611</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1</v>
+      </c>
+      <c r="F174" s="2">
+        <v>0</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2">
+        <v>0</v>
+      </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -12068,230 +13962,416 @@
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="3"/>
-      <c r="U174" s="2"/>
+      <c r="S174" s="2">
+        <v>0</v>
+      </c>
+      <c r="T174" s="2">
+        <v>0</v>
+      </c>
+      <c r="U174" s="2">
+        <v>0</v>
+      </c>
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
-      <c r="AB174" s="3"/>
+      <c r="AB174" s="2">
+        <v>0</v>
+      </c>
       <c r="AC174" s="2"/>
-      <c r="AD174" s="2"/>
-      <c r="AE174" s="3"/>
+      <c r="AD174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE174" s="2">
+        <v>0</v>
+      </c>
       <c r="AF174" s="2"/>
-      <c r="AG174" s="2"/>
-      <c r="AH174" s="3"/>
-      <c r="AI174" s="3"/>
-      <c r="AJ174" s="2"/>
-      <c r="AK174" s="3"/>
+      <c r="AG174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI174" s="2"/>
+      <c r="AJ174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK174" s="2">
+        <v>0</v>
+      </c>
       <c r="AL174" s="2"/>
-      <c r="AM174" s="2"/>
+      <c r="AM174" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" s="2">
+        <v>620</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="L175" s="2">
+        <v>1</v>
+      </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
-      <c r="S175" s="3"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
+      <c r="S175" s="3">
+        <v>0</v>
+      </c>
+      <c r="T175" s="2">
+        <v>1</v>
+      </c>
+      <c r="U175" s="2">
+        <v>1</v>
+      </c>
       <c r="V175" s="3"/>
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
-      <c r="AB175" s="3"/>
+      <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
       <c r="AD175" s="2"/>
-      <c r="AE175" s="3"/>
+      <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
       <c r="AG175" s="2"/>
-      <c r="AH175" s="3"/>
-      <c r="AI175" s="3"/>
-      <c r="AJ175" s="2"/>
-      <c r="AK175" s="3"/>
+      <c r="AH175" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI175" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ175" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK175" s="2">
+        <v>0</v>
+      </c>
       <c r="AL175" s="2"/>
       <c r="AM175" s="2"/>
     </row>
     <row r="176" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E176" s="2">
+        <v>2</v>
+      </c>
+      <c r="F176" s="2">
+        <v>1</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="L176" s="2">
+        <v>1</v>
+      </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="3"/>
-      <c r="U176" s="2"/>
+      <c r="S176" s="2">
+        <v>0</v>
+      </c>
+      <c r="T176" s="2">
+        <v>4</v>
+      </c>
+      <c r="U176" s="2">
+        <v>1</v>
+      </c>
       <c r="V176" s="3"/>
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
-      <c r="AB176" s="3"/>
+      <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
-      <c r="AE176" s="3"/>
+      <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
       <c r="AG176" s="2"/>
-      <c r="AH176" s="3"/>
-      <c r="AI176" s="3"/>
+      <c r="AH176" s="2"/>
+      <c r="AI176" s="2"/>
       <c r="AJ176" s="2"/>
-      <c r="AK176" s="3"/>
+      <c r="AK176" s="2"/>
       <c r="AL176" s="2"/>
       <c r="AM176" s="2"/>
     </row>
     <row r="177" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="A177" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="2">
+        <v>612</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E177" s="2">
+        <v>3</v>
+      </c>
+      <c r="F177" s="2">
+        <v>0</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2">
+        <v>0</v>
+      </c>
+      <c r="K177" s="2">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2">
+        <v>1</v>
+      </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="3"/>
-      <c r="U177" s="2"/>
+      <c r="S177" s="2">
+        <v>0</v>
+      </c>
+      <c r="T177" s="2">
+        <v>0</v>
+      </c>
+      <c r="U177" s="2">
+        <v>0</v>
+      </c>
       <c r="V177" s="3"/>
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
-      <c r="AB177" s="3"/>
+      <c r="AB177" s="2">
+        <v>0</v>
+      </c>
       <c r="AC177" s="2"/>
-      <c r="AD177" s="2"/>
-      <c r="AE177" s="3"/>
+      <c r="AD177" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE177" s="2">
+        <v>1</v>
+      </c>
       <c r="AF177" s="2"/>
       <c r="AG177" s="2"/>
-      <c r="AH177" s="3"/>
-      <c r="AI177" s="3"/>
-      <c r="AJ177" s="2"/>
-      <c r="AK177" s="3"/>
+      <c r="AH177" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="2"/>
+      <c r="AJ177" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK177" s="2">
+        <v>0</v>
+      </c>
       <c r="AL177" s="2"/>
-      <c r="AM177" s="2"/>
+      <c r="AM177" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
+      <c r="A178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2912</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E178" s="2">
+        <v>3</v>
+      </c>
+      <c r="F178" s="2">
+        <v>1</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>1</v>
+      </c>
+      <c r="J178" s="2">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2">
+        <v>1</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="3"/>
-      <c r="U178" s="2"/>
+      <c r="S178" s="2">
+        <v>0</v>
+      </c>
+      <c r="T178" s="2">
+        <v>0</v>
+      </c>
+      <c r="U178" s="2">
+        <v>0</v>
+      </c>
       <c r="V178" s="3"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
-      <c r="AB178" s="3"/>
+      <c r="AB178" s="2">
+        <v>0</v>
+      </c>
       <c r="AC178" s="2"/>
       <c r="AD178" s="2"/>
-      <c r="AE178" s="3"/>
+      <c r="AE178" s="2">
+        <v>1</v>
+      </c>
       <c r="AF178" s="2"/>
-      <c r="AG178" s="2"/>
-      <c r="AH178" s="3"/>
-      <c r="AI178" s="3"/>
+      <c r="AG178" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH178" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI178" s="2"/>
       <c r="AJ178" s="2"/>
-      <c r="AK178" s="3"/>
+      <c r="AK178" s="2">
+        <v>0</v>
+      </c>
       <c r="AL178" s="2"/>
       <c r="AM178" s="2"/>
     </row>
     <row r="179" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="A179" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" s="2">
+        <v>8326</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2">
+        <v>1</v>
+      </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
+      <c r="L179" s="2">
+        <v>1</v>
+      </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
-      <c r="S179" s="3"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2"/>
+      <c r="S179" s="2">
+        <v>0</v>
+      </c>
+      <c r="T179" s="2">
+        <v>0</v>
+      </c>
+      <c r="U179" s="2">
+        <v>0</v>
+      </c>
       <c r="V179" s="3"/>
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
-      <c r="AB179" s="3"/>
+      <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
       <c r="AD179" s="2"/>
-      <c r="AE179" s="3"/>
+      <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
       <c r="AG179" s="2"/>
-      <c r="AH179" s="3"/>
-      <c r="AI179" s="3"/>
+      <c r="AH179" s="2"/>
+      <c r="AI179" s="2"/>
       <c r="AJ179" s="2"/>
-      <c r="AK179" s="3"/>
+      <c r="AK179" s="2"/>
       <c r="AL179" s="2"/>
       <c r="AM179" s="2"/>
     </row>

--- a/SampleRapidReactScoutingData.xlsx
+++ b/SampleRapidReactScoutingData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Snowflake/Documents/Crystal Zhang/git/Scouting-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55EA0A2-8803-E74A-9365-2437184DF4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6DFE53-DC97-8147-A5DD-D61C9E6505AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="dc week 1" sheetId="1" r:id="rId1"/>
+    <sheet name="old haymarket" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="191">
   <si>
     <t>Scout Name</t>
   </si>
@@ -565,6 +564,48 @@
   <si>
     <t>missed upper hub</t>
   </si>
+  <si>
+    <t>qm31</t>
+  </si>
+  <si>
+    <t>qm32</t>
+  </si>
+  <si>
+    <t>qm33</t>
+  </si>
+  <si>
+    <t>sf1.1</t>
+  </si>
+  <si>
+    <t>sf2.1</t>
+  </si>
+  <si>
+    <t>sf2.2</t>
+  </si>
+  <si>
+    <t>sf1.2</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Most of the time</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>All of the time</t>
+  </si>
 </sst>
 </file>
 
@@ -849,13 +890,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AP200"/>
+  <dimension ref="A1:AP233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R147" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y178" sqref="Y178"/>
+      <selection pane="bottomRight" activeCell="AQ226" sqref="AQ226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -988,7 +1029,9 @@
       <c r="AN1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="1"/>
+      <c r="AO1" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="AP1" s="1"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1043,6 +1086,9 @@
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AO2" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1099,6 +1145,9 @@
       <c r="AN3" t="s">
         <v>99</v>
       </c>
+      <c r="AO3" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1155,6 +1204,9 @@
       <c r="AN4" t="s">
         <v>100</v>
       </c>
+      <c r="AO4" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="5" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1223,6 +1275,9 @@
       <c r="AN5" t="s">
         <v>102</v>
       </c>
+      <c r="AO5" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1279,6 +1334,9 @@
       <c r="AN6" t="s">
         <v>103</v>
       </c>
+      <c r="AO6" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1356,6 +1414,9 @@
       <c r="AN7" t="s">
         <v>105</v>
       </c>
+      <c r="AO7" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="8" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1418,6 +1479,9 @@
       <c r="AN8" t="s">
         <v>106</v>
       </c>
+      <c r="AO8" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1480,6 +1544,9 @@
       <c r="AN9" t="s">
         <v>108</v>
       </c>
+      <c r="AO9" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -1542,6 +1609,9 @@
       <c r="AK10">
         <v>0</v>
       </c>
+      <c r="AO10" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -1595,6 +1665,9 @@
       <c r="AK11">
         <v>0</v>
       </c>
+      <c r="AO11" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -1648,6 +1721,9 @@
       <c r="AK12">
         <v>0</v>
       </c>
+      <c r="AO12" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -1713,6 +1789,9 @@
       <c r="AK13">
         <v>0</v>
       </c>
+      <c r="AO13" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="14" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -1763,6 +1842,9 @@
       <c r="AK14">
         <v>0</v>
       </c>
+      <c r="AO14" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="15" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -1822,6 +1904,9 @@
       <c r="AK15">
         <v>0</v>
       </c>
+      <c r="AO15" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="16" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1890,8 +1975,11 @@
       <c r="AK16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO16" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -1946,8 +2034,11 @@
       <c r="AN17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO17" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -2011,8 +2102,11 @@
       <c r="AN18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO18" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -2067,8 +2161,11 @@
       <c r="AK19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO19" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2132,8 +2229,11 @@
       <c r="AK20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO20" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2194,8 +2294,11 @@
       <c r="AK21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO21" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2247,8 +2350,11 @@
       <c r="AK22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO22" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -2267,8 +2373,11 @@
       <c r="AN23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO23" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -2329,8 +2438,11 @@
       <c r="AN24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO24" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -2394,8 +2506,11 @@
       <c r="AN25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO25" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -2453,8 +2568,11 @@
       <c r="AN26" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO26" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -2530,8 +2648,11 @@
       <c r="AN27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO27" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -2586,8 +2707,11 @@
       <c r="AN28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO28" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -2639,8 +2763,11 @@
       <c r="AK29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO29" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -2710,8 +2837,11 @@
       <c r="AK30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO30" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -2727,8 +2857,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO31" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -2780,8 +2913,11 @@
       <c r="AK32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO32" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -2836,8 +2972,11 @@
       <c r="AN33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO33" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -2901,8 +3040,11 @@
       <c r="AN34" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO34" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -2960,8 +3102,11 @@
       <c r="AK35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO35" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -3013,8 +3158,11 @@
       <c r="AK36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO36" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>124</v>
       </c>
@@ -3096,8 +3244,11 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
-    </row>
-    <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO37" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
@@ -3181,8 +3332,11 @@
       </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
-    </row>
-    <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO38" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -3256,8 +3410,11 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
-    </row>
-    <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO39" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>120</v>
       </c>
@@ -3325,8 +3482,11 @@
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
-    </row>
-    <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO40" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -3402,8 +3562,11 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
-    </row>
-    <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO41" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -3485,8 +3648,11 @@
       </c>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
-    </row>
-    <row r="43" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO42" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
@@ -3550,8 +3716,9 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
-    </row>
-    <row r="44" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO43" s="2"/>
+    </row>
+    <row r="44" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -3619,8 +3786,11 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
-    </row>
-    <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO44" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
@@ -3692,8 +3862,11 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
-    </row>
-    <row r="46" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO45" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3777,8 +3950,11 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
-    </row>
-    <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO46" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>123</v>
       </c>
@@ -3850,8 +4026,11 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
-    </row>
-    <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO47" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>122</v>
       </c>
@@ -3937,8 +4116,11 @@
       <c r="AM48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO48" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>123</v>
       </c>
@@ -4004,8 +4186,9 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
-    </row>
-    <row r="50" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO49" s="2"/>
+    </row>
+    <row r="50" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>119</v>
       </c>
@@ -4071,8 +4254,11 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
-    </row>
-    <row r="51" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO50" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
@@ -4138,8 +4324,11 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
-    </row>
-    <row r="52" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO51" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>121</v>
       </c>
@@ -4219,8 +4408,11 @@
       </c>
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
-    </row>
-    <row r="53" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO52" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -4288,8 +4480,11 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
-    </row>
-    <row r="54" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO53" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
@@ -4365,8 +4560,11 @@
       </c>
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
-    </row>
-    <row r="55" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO54" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>121</v>
       </c>
@@ -4442,8 +4640,11 @@
       </c>
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
-    </row>
-    <row r="56" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO55" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -4517,8 +4718,11 @@
       </c>
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
-    </row>
-    <row r="57" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO56" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>120</v>
       </c>
@@ -4584,8 +4788,11 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
-    </row>
-    <row r="58" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO57" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -4653,8 +4860,11 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
-    </row>
-    <row r="59" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO58" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
@@ -4720,8 +4930,11 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" s="2"/>
-    </row>
-    <row r="60" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO59" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>122</v>
       </c>
@@ -4807,8 +5020,11 @@
       <c r="AM60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO60" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
@@ -4874,8 +5090,9 @@
       <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" s="2"/>
-    </row>
-    <row r="62" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO61" s="2"/>
+    </row>
+    <row r="62" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -4981,8 +5198,11 @@
       <c r="AM62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO62" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>138</v>
       </c>
@@ -5064,8 +5284,11 @@
       <c r="AM63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO63" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>139</v>
       </c>
@@ -5163,8 +5386,11 @@
       </c>
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
-    </row>
-    <row r="65" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO64" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>122</v>
       </c>
@@ -5266,8 +5492,11 @@
       </c>
       <c r="AL65" s="2"/>
       <c r="AM65" s="2"/>
-    </row>
-    <row r="66" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO65" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
@@ -5371,8 +5600,11 @@
       <c r="AM66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO66" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>137</v>
       </c>
@@ -5444,8 +5676,11 @@
       </c>
       <c r="AL67" s="2"/>
       <c r="AM67" s="2"/>
-    </row>
-    <row r="68" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO67" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5551,8 +5786,11 @@
       <c r="AM68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO68" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>138</v>
       </c>
@@ -5638,8 +5876,11 @@
       <c r="AM69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO69" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>139</v>
       </c>
@@ -5735,8 +5976,11 @@
       </c>
       <c r="AL70" s="2"/>
       <c r="AM70" s="2"/>
-    </row>
-    <row r="71" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO70" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -5840,8 +6084,11 @@
       <c r="AM71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO71" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>122</v>
       </c>
@@ -5937,8 +6184,11 @@
       </c>
       <c r="AL72" s="2"/>
       <c r="AM72" s="2"/>
-    </row>
-    <row r="73" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO72" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>137</v>
       </c>
@@ -6008,8 +6258,9 @@
       <c r="AK73" s="2"/>
       <c r="AL73" s="2"/>
       <c r="AM73" s="2"/>
-    </row>
-    <row r="74" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO73" s="2"/>
+    </row>
+    <row r="74" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>138</v>
       </c>
@@ -6101,8 +6352,11 @@
       <c r="AM74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO74" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -6210,8 +6464,11 @@
       <c r="AM75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO75" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>139</v>
       </c>
@@ -6291,8 +6548,11 @@
       </c>
       <c r="AL76" s="2"/>
       <c r="AM76" s="2"/>
-    </row>
-    <row r="77" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO76" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>122</v>
       </c>
@@ -6372,8 +6632,11 @@
       </c>
       <c r="AL77" s="2"/>
       <c r="AM77" s="2"/>
-    </row>
-    <row r="78" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO77" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>140</v>
       </c>
@@ -6463,8 +6726,11 @@
       </c>
       <c r="AL78" s="2"/>
       <c r="AM78" s="2"/>
-    </row>
-    <row r="79" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO78" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>122</v>
       </c>
@@ -6514,8 +6780,9 @@
       <c r="AK79" s="2"/>
       <c r="AL79" s="2"/>
       <c r="AM79" s="2"/>
-    </row>
-    <row r="80" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO79" s="2"/>
+    </row>
+    <row r="80" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -6619,8 +6886,11 @@
       <c r="AM80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO80" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>97</v>
       </c>
@@ -6726,8 +6996,11 @@
       <c r="AM81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO81" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>140</v>
       </c>
@@ -6807,8 +7080,11 @@
       </c>
       <c r="AL82" s="2"/>
       <c r="AM82" s="2"/>
-    </row>
-    <row r="83" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO82" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>139</v>
       </c>
@@ -6868,8 +7144,11 @@
       <c r="AK83" s="2"/>
       <c r="AL83" s="2"/>
       <c r="AM83" s="2"/>
-    </row>
-    <row r="84" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO83" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>138</v>
       </c>
@@ -6967,8 +7246,11 @@
       <c r="AM84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO84" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -7050,8 +7332,11 @@
         <v>0</v>
       </c>
       <c r="AM85" s="2"/>
-    </row>
-    <row r="86" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO85" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>138</v>
       </c>
@@ -7133,8 +7418,11 @@
         <v>0</v>
       </c>
       <c r="AM86" s="2"/>
-    </row>
-    <row r="87" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO86" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>139</v>
       </c>
@@ -7200,8 +7488,11 @@
       <c r="AK87" s="2"/>
       <c r="AL87" s="2"/>
       <c r="AM87" s="2"/>
-    </row>
-    <row r="88" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO87" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>140</v>
       </c>
@@ -7273,8 +7564,11 @@
       <c r="AK88" s="2"/>
       <c r="AL88" s="2"/>
       <c r="AM88" s="2"/>
-    </row>
-    <row r="89" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO88" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>122</v>
       </c>
@@ -7346,8 +7640,11 @@
       <c r="AK89" s="2"/>
       <c r="AL89" s="2"/>
       <c r="AM89" s="2"/>
-    </row>
-    <row r="90" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO89" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
@@ -7419,8 +7716,11 @@
       <c r="AK90" s="2"/>
       <c r="AL90" s="2"/>
       <c r="AM90" s="2"/>
-    </row>
-    <row r="91" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO90" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>111</v>
       </c>
@@ -7486,8 +7786,11 @@
       <c r="AK91" s="2"/>
       <c r="AL91" s="2"/>
       <c r="AM91" s="2"/>
-    </row>
-    <row r="92" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO91" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>109</v>
       </c>
@@ -7571,8 +7874,11 @@
         <v>0</v>
       </c>
       <c r="AM92" s="2"/>
-    </row>
-    <row r="93" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO92" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>156</v>
       </c>
@@ -7646,8 +7952,11 @@
       <c r="AK93" s="2"/>
       <c r="AL93" s="2"/>
       <c r="AM93" s="2"/>
-    </row>
-    <row r="94" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO93" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -7731,8 +8040,11 @@
         <v>0</v>
       </c>
       <c r="AM94" s="2"/>
-    </row>
-    <row r="95" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO94" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>137</v>
       </c>
@@ -7814,8 +8126,11 @@
         <v>0</v>
       </c>
       <c r="AM95" s="2"/>
-    </row>
-    <row r="96" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO95" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>109</v>
       </c>
@@ -7897,8 +8212,11 @@
       <c r="AK96" s="2"/>
       <c r="AL96" s="2"/>
       <c r="AM96" s="2"/>
-    </row>
-    <row r="97" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO96" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
@@ -7956,8 +8274,9 @@
       <c r="AK97" s="2"/>
       <c r="AL97" s="2"/>
       <c r="AM97" s="2"/>
-    </row>
-    <row r="98" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO97" s="2"/>
+    </row>
+    <row r="98" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>156</v>
       </c>
@@ -8021,8 +8340,11 @@
       <c r="AK98" s="2"/>
       <c r="AL98" s="2"/>
       <c r="AM98" s="2"/>
-    </row>
-    <row r="99" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO98" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>111</v>
       </c>
@@ -8076,8 +8398,9 @@
       <c r="AK99" s="2"/>
       <c r="AL99" s="2"/>
       <c r="AM99" s="2"/>
-    </row>
-    <row r="100" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO99" s="2"/>
+    </row>
+    <row r="100" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>46</v>
       </c>
@@ -8153,8 +8476,11 @@
       <c r="AK100" s="2"/>
       <c r="AL100" s="2"/>
       <c r="AM100" s="2"/>
-    </row>
-    <row r="101" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO100" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
@@ -8240,8 +8566,11 @@
         <v>0</v>
       </c>
       <c r="AM101" s="2"/>
-    </row>
-    <row r="102" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO101" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>46</v>
       </c>
@@ -8305,8 +8634,11 @@
       <c r="AK102" s="2"/>
       <c r="AL102" s="2"/>
       <c r="AM102" s="2"/>
-    </row>
-    <row r="103" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO102" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>156</v>
       </c>
@@ -8380,8 +8712,11 @@
       <c r="AK103" s="2"/>
       <c r="AL103" s="2"/>
       <c r="AM103" s="2"/>
-    </row>
-    <row r="104" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO103" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -8467,8 +8802,9 @@
         <v>0</v>
       </c>
       <c r="AM104" s="2"/>
-    </row>
-    <row r="105" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO104" s="2"/>
+    </row>
+    <row r="105" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>109</v>
       </c>
@@ -8552,8 +8888,11 @@
         <v>0</v>
       </c>
       <c r="AM105" s="2"/>
-    </row>
-    <row r="106" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO105" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>101</v>
       </c>
@@ -8613,8 +8952,9 @@
       <c r="AK106" s="2"/>
       <c r="AL106" s="2"/>
       <c r="AM106" s="2"/>
-    </row>
-    <row r="107" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO106" s="2"/>
+    </row>
+    <row r="107" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>111</v>
       </c>
@@ -8676,8 +9016,9 @@
       <c r="AK107" s="2"/>
       <c r="AL107" s="2"/>
       <c r="AM107" s="2"/>
-    </row>
-    <row r="108" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO107" s="2"/>
+    </row>
+    <row r="108" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
@@ -8763,8 +9104,11 @@
         <v>0</v>
       </c>
       <c r="AM108" s="2"/>
-    </row>
-    <row r="109" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO108" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>46</v>
       </c>
@@ -8830,8 +9174,11 @@
       <c r="AK109" s="2"/>
       <c r="AL109" s="2"/>
       <c r="AM109" s="2"/>
-    </row>
-    <row r="110" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO109" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>97</v>
       </c>
@@ -8915,8 +9262,11 @@
         <v>0</v>
       </c>
       <c r="AM110" s="2"/>
-    </row>
-    <row r="111" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO110" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>156</v>
       </c>
@@ -8996,8 +9346,11 @@
       <c r="AK111" s="2"/>
       <c r="AL111" s="2"/>
       <c r="AM111" s="2"/>
-    </row>
-    <row r="112" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO111" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>101</v>
       </c>
@@ -9067,8 +9420,9 @@
       <c r="AK112" s="2"/>
       <c r="AL112" s="2"/>
       <c r="AM112" s="2"/>
-    </row>
-    <row r="113" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO112" s="2"/>
+    </row>
+    <row r="113" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -9148,8 +9502,11 @@
       <c r="AK113" s="2"/>
       <c r="AL113" s="2"/>
       <c r="AM113" s="2"/>
-    </row>
-    <row r="114" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO113" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>156</v>
       </c>
@@ -9229,8 +9586,11 @@
       </c>
       <c r="AL114" s="2"/>
       <c r="AM114" s="2"/>
-    </row>
-    <row r="115" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO114" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>109</v>
       </c>
@@ -9316,8 +9676,11 @@
       <c r="AM115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO115" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>46</v>
       </c>
@@ -9389,8 +9752,11 @@
       <c r="AK116" s="2"/>
       <c r="AL116" s="2"/>
       <c r="AM116" s="2"/>
-    </row>
-    <row r="117" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO116" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>97</v>
       </c>
@@ -9478,8 +9844,11 @@
       <c r="AM117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO117" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>111</v>
       </c>
@@ -9565,8 +9934,11 @@
       <c r="AM118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO118" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>101</v>
       </c>
@@ -9646,8 +10018,9 @@
       <c r="AM119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO119" s="2"/>
+    </row>
+    <row r="120" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -9719,8 +10092,11 @@
       <c r="AK120" s="2"/>
       <c r="AL120" s="2"/>
       <c r="AM120" s="2"/>
-    </row>
-    <row r="121" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO120" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>77</v>
       </c>
@@ -9806,8 +10182,11 @@
       <c r="AM121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO121" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -9887,8 +10266,11 @@
       </c>
       <c r="AL122" s="2"/>
       <c r="AM122" s="2"/>
-    </row>
-    <row r="123" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO122" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
@@ -9976,8 +10358,11 @@
       <c r="AM123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO123" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -10049,8 +10434,11 @@
       </c>
       <c r="AL124" s="2"/>
       <c r="AM124" s="2"/>
-    </row>
-    <row r="125" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO124" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>120</v>
       </c>
@@ -10124,8 +10512,11 @@
       </c>
       <c r="AL125" s="2"/>
       <c r="AM125" s="2"/>
-    </row>
-    <row r="126" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO125" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>119</v>
       </c>
@@ -10193,8 +10584,11 @@
       </c>
       <c r="AL126" s="2"/>
       <c r="AM126" s="2"/>
-    </row>
-    <row r="127" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO126" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>123</v>
       </c>
@@ -10260,8 +10654,11 @@
       </c>
       <c r="AL127" s="2"/>
       <c r="AM127" s="2"/>
-    </row>
-    <row r="128" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO127" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>120</v>
       </c>
@@ -10341,8 +10738,11 @@
       </c>
       <c r="AL128" s="2"/>
       <c r="AM128" s="2"/>
-    </row>
-    <row r="129" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO128" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>121</v>
       </c>
@@ -10428,8 +10828,11 @@
       <c r="AM129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO129" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>77</v>
       </c>
@@ -10515,8 +10918,11 @@
       <c r="AM130" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO130" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>124</v>
       </c>
@@ -10604,8 +11010,11 @@
       <c r="AM131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO131" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>119</v>
       </c>
@@ -10667,8 +11076,11 @@
       <c r="AK132" s="2"/>
       <c r="AL132" s="2"/>
       <c r="AM132" s="2"/>
-    </row>
-    <row r="133" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO132" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>124</v>
       </c>
@@ -10754,8 +11166,11 @@
       <c r="AM133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO133" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>121</v>
       </c>
@@ -10843,8 +11258,11 @@
       <c r="AM134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO134" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>120</v>
       </c>
@@ -10912,8 +11330,11 @@
       </c>
       <c r="AL135" s="2"/>
       <c r="AM135" s="2"/>
-    </row>
-    <row r="136" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO135" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>123</v>
       </c>
@@ -10987,8 +11408,11 @@
       </c>
       <c r="AL136" s="2"/>
       <c r="AM136" s="2"/>
-    </row>
-    <row r="137" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO136" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>87</v>
       </c>
@@ -11074,8 +11498,11 @@
       <c r="AM137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO137" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>119</v>
       </c>
@@ -11149,8 +11576,11 @@
       <c r="AK138" s="2"/>
       <c r="AL138" s="2"/>
       <c r="AM138" s="2"/>
-    </row>
-    <row r="139" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO138" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>120</v>
       </c>
@@ -11216,8 +11646,11 @@
       <c r="AK139" s="2"/>
       <c r="AL139" s="2"/>
       <c r="AM139" s="2"/>
-    </row>
-    <row r="140" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO139" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>121</v>
       </c>
@@ -11305,8 +11738,11 @@
       <c r="AM140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO140" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>123</v>
       </c>
@@ -11388,8 +11824,11 @@
       </c>
       <c r="AL141" s="2"/>
       <c r="AM141" s="2"/>
-    </row>
-    <row r="142" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO141" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>124</v>
       </c>
@@ -11475,8 +11914,11 @@
       <c r="AM142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO142" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>87</v>
       </c>
@@ -11562,8 +12004,11 @@
       <c r="AM143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO143" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>119</v>
       </c>
@@ -11647,8 +12092,11 @@
       </c>
       <c r="AL144" s="2"/>
       <c r="AM144" s="2"/>
-    </row>
-    <row r="145" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO144" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>120</v>
       </c>
@@ -11720,8 +12168,11 @@
       <c r="AK145" s="2"/>
       <c r="AL145" s="2"/>
       <c r="AM145" s="2"/>
-    </row>
-    <row r="146" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO145" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>124</v>
       </c>
@@ -11809,8 +12260,11 @@
       </c>
       <c r="AL146" s="2"/>
       <c r="AM146" s="2"/>
-    </row>
-    <row r="147" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO146" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>121</v>
       </c>
@@ -11894,8 +12348,11 @@
       </c>
       <c r="AL147" s="2"/>
       <c r="AM147" s="2"/>
-    </row>
-    <row r="148" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO147" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>123</v>
       </c>
@@ -11973,8 +12430,11 @@
       </c>
       <c r="AL148" s="2"/>
       <c r="AM148" s="2"/>
-    </row>
-    <row r="149" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO148" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>77</v>
       </c>
@@ -12058,8 +12518,11 @@
       </c>
       <c r="AL149" s="2"/>
       <c r="AM149" s="2"/>
-    </row>
-    <row r="150" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO149" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>96</v>
       </c>
@@ -12145,8 +12608,9 @@
       <c r="AM150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO150" s="2"/>
+    </row>
+    <row r="151" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>46</v>
       </c>
@@ -12218,8 +12682,11 @@
       <c r="AK151" s="2"/>
       <c r="AL151" s="2"/>
       <c r="AM151" s="2"/>
-    </row>
-    <row r="152" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO151" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>137</v>
       </c>
@@ -12297,8 +12764,11 @@
       <c r="AM152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO152" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>140</v>
       </c>
@@ -12378,8 +12848,11 @@
       </c>
       <c r="AL153" s="2"/>
       <c r="AM153" s="2"/>
-    </row>
-    <row r="154" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO153" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>139</v>
       </c>
@@ -12453,8 +12926,11 @@
       </c>
       <c r="AL154" s="2"/>
       <c r="AM154" s="2"/>
-    </row>
-    <row r="155" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO154" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>138</v>
       </c>
@@ -12540,8 +13016,11 @@
       <c r="AM155" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO155" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>137</v>
       </c>
@@ -12607,8 +13086,11 @@
       </c>
       <c r="AL156" s="2"/>
       <c r="AM156" s="2"/>
-    </row>
-    <row r="157" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO156" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>139</v>
       </c>
@@ -12682,8 +13164,11 @@
       <c r="AK157" s="2"/>
       <c r="AL157" s="2"/>
       <c r="AM157" s="2"/>
-    </row>
-    <row r="158" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO157" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>138</v>
       </c>
@@ -12769,8 +13254,11 @@
       <c r="AM158" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO158" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>46</v>
       </c>
@@ -12840,8 +13328,11 @@
       <c r="AK159" s="2"/>
       <c r="AL159" s="2"/>
       <c r="AM159" s="2"/>
-    </row>
-    <row r="160" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO159" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>96</v>
       </c>
@@ -12929,8 +13420,11 @@
       <c r="AM160" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO160" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>140</v>
       </c>
@@ -13012,8 +13506,11 @@
       </c>
       <c r="AL161" s="2"/>
       <c r="AM161" s="2"/>
-    </row>
-    <row r="162" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO161" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
         <v>138</v>
       </c>
@@ -13097,8 +13594,11 @@
       </c>
       <c r="AL162" s="2"/>
       <c r="AM162" s="2"/>
-    </row>
-    <row r="163" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO162" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>137</v>
       </c>
@@ -13150,8 +13650,9 @@
       <c r="AK163" s="2"/>
       <c r="AL163" s="2"/>
       <c r="AM163" s="2"/>
-    </row>
-    <row r="164" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO163" s="2"/>
+    </row>
+    <row r="164" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>139</v>
       </c>
@@ -13223,8 +13724,11 @@
       <c r="AK164" s="2"/>
       <c r="AL164" s="2"/>
       <c r="AM164" s="2"/>
-    </row>
-    <row r="165" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO164" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>46</v>
       </c>
@@ -13288,8 +13792,11 @@
       <c r="AK165" s="2"/>
       <c r="AL165" s="2"/>
       <c r="AM165" s="2"/>
-    </row>
-    <row r="166" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO165" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
         <v>96</v>
       </c>
@@ -13371,8 +13878,9 @@
       </c>
       <c r="AL166" s="2"/>
       <c r="AM166" s="2"/>
-    </row>
-    <row r="167" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO166" s="2"/>
+    </row>
+    <row r="167" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>140</v>
       </c>
@@ -13450,8 +13958,11 @@
       </c>
       <c r="AL167" s="2"/>
       <c r="AM167" s="2"/>
-    </row>
-    <row r="168" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO167" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>138</v>
       </c>
@@ -13535,8 +14046,11 @@
       <c r="AM168" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO168" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>139</v>
       </c>
@@ -13608,8 +14122,11 @@
       <c r="AK169" s="2"/>
       <c r="AL169" s="2"/>
       <c r="AM169" s="2"/>
-    </row>
-    <row r="170" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO169" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>96</v>
       </c>
@@ -13695,8 +14212,11 @@
       <c r="AM170" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO170" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>137</v>
       </c>
@@ -13754,8 +14274,9 @@
       <c r="AK171" s="2"/>
       <c r="AL171" s="2"/>
       <c r="AM171" s="2"/>
-    </row>
-    <row r="172" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO171" s="2"/>
+    </row>
+    <row r="172" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>46</v>
       </c>
@@ -13833,8 +14354,11 @@
       <c r="AK172" s="2"/>
       <c r="AL172" s="2"/>
       <c r="AM172" s="2"/>
-    </row>
-    <row r="173" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO172" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>140</v>
       </c>
@@ -13920,8 +14444,11 @@
       </c>
       <c r="AL173" s="2"/>
       <c r="AM173" s="2"/>
-    </row>
-    <row r="174" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO173" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
         <v>96</v>
       </c>
@@ -13937,24 +14464,12 @@
       <c r="E174" s="2">
         <v>1</v>
       </c>
-      <c r="F174" s="2">
-        <v>0</v>
-      </c>
-      <c r="G174" s="2">
-        <v>0</v>
-      </c>
-      <c r="H174" s="2">
-        <v>0</v>
-      </c>
-      <c r="I174" s="2">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2">
-        <v>0</v>
-      </c>
-      <c r="K174" s="2">
-        <v>0</v>
-      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="3"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -13962,51 +14477,30 @@
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
-      <c r="S174" s="2">
-        <v>0</v>
-      </c>
-      <c r="T174" s="2">
-        <v>0</v>
-      </c>
-      <c r="U174" s="2">
-        <v>0</v>
-      </c>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
       <c r="V174" s="3"/>
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
-      <c r="AB174" s="2">
-        <v>0</v>
-      </c>
+      <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
-      <c r="AD174" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE174" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD174" s="2"/>
+      <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
-      <c r="AG174" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH174" s="2">
-        <v>0</v>
-      </c>
+      <c r="AG174" s="2"/>
+      <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
-      <c r="AJ174" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK174" s="2">
-        <v>0</v>
-      </c>
+      <c r="AJ174" s="2"/>
+      <c r="AK174" s="2"/>
       <c r="AL174" s="2"/>
-      <c r="AM174" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AM174" s="2"/>
+      <c r="AO174" s="2"/>
+    </row>
+    <row r="175" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>137</v>
       </c>
@@ -14074,8 +14568,11 @@
       </c>
       <c r="AL175" s="2"/>
       <c r="AM175" s="2"/>
-    </row>
-    <row r="176" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO175" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>139</v>
       </c>
@@ -14141,8 +14638,11 @@
       <c r="AK176" s="2"/>
       <c r="AL176" s="2"/>
       <c r="AM176" s="2"/>
-    </row>
-    <row r="177" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO176" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>138</v>
       </c>
@@ -14226,8 +14726,11 @@
       <c r="AM177" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO177" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>140</v>
       </c>
@@ -14295,7 +14798,9 @@
       <c r="AE178" s="2">
         <v>1</v>
       </c>
-      <c r="AF178" s="2"/>
+      <c r="AF178" s="2">
+        <v>1</v>
+      </c>
       <c r="AG178" s="2">
         <v>3</v>
       </c>
@@ -14309,8 +14814,11 @@
       </c>
       <c r="AL178" s="2"/>
       <c r="AM178" s="2"/>
-    </row>
-    <row r="179" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AO178" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>46</v>
       </c>
@@ -14374,60 +14882,128 @@
       <c r="AK179" s="2"/>
       <c r="AL179" s="2"/>
       <c r="AM179" s="2"/>
-    </row>
-    <row r="180" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
+      <c r="AO179" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0</v>
+      </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
+      <c r="L180" s="2">
+        <v>1</v>
+      </c>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
-      <c r="S180" s="3"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
+      <c r="S180" s="2">
+        <v>3</v>
+      </c>
+      <c r="T180" s="2">
+        <v>0</v>
+      </c>
+      <c r="U180" s="2">
+        <v>0</v>
+      </c>
       <c r="V180" s="3"/>
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="2"/>
-      <c r="AD180" s="2"/>
-      <c r="AE180" s="3"/>
-      <c r="AF180" s="2"/>
-      <c r="AG180" s="2"/>
-      <c r="AH180" s="3"/>
-      <c r="AI180" s="3"/>
+      <c r="AB180" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC180" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD180" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF180" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG180" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="2"/>
       <c r="AJ180" s="2"/>
-      <c r="AK180" s="3"/>
+      <c r="AK180" s="2">
+        <v>0</v>
+      </c>
       <c r="AL180" s="2"/>
       <c r="AM180" s="2"/>
-    </row>
-    <row r="181" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="AO180" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C181" s="2">
+        <v>8622</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E181" s="2">
+        <v>3</v>
+      </c>
       <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
+      <c r="G181" s="2">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2">
+        <v>0</v>
+      </c>
+      <c r="K181" s="2">
+        <v>0</v>
+      </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -14435,198 +15011,403 @@
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
-      <c r="S181" s="3"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2"/>
+      <c r="S181" s="2">
+        <v>2</v>
+      </c>
+      <c r="T181" s="2">
+        <v>0</v>
+      </c>
+      <c r="U181" s="2">
+        <v>1</v>
+      </c>
       <c r="V181" s="3"/>
       <c r="W181" s="2"/>
       <c r="X181" s="3"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
-      <c r="AB181" s="3"/>
+      <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
       <c r="AD181" s="2"/>
-      <c r="AE181" s="3"/>
+      <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
       <c r="AG181" s="2"/>
-      <c r="AH181" s="3"/>
-      <c r="AI181" s="3"/>
+      <c r="AH181" s="2"/>
+      <c r="AI181" s="2"/>
       <c r="AJ181" s="2"/>
-      <c r="AK181" s="3"/>
+      <c r="AK181" s="2"/>
       <c r="AL181" s="2"/>
       <c r="AM181" s="2"/>
-    </row>
-    <row r="182" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="AO181" s="2"/>
+    </row>
+    <row r="182" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A182" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C182" s="2">
+        <v>888</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E182" s="2">
+        <v>2</v>
+      </c>
+      <c r="F182" s="2">
+        <v>1</v>
+      </c>
+      <c r="G182" s="2">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2">
+        <v>0</v>
+      </c>
+      <c r="K182" s="2">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2">
+        <v>1</v>
+      </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
-      <c r="S182" s="3"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2"/>
+      <c r="S182" s="2">
+        <v>5</v>
+      </c>
+      <c r="T182" s="2">
+        <v>0</v>
+      </c>
+      <c r="U182" s="2">
+        <v>0</v>
+      </c>
       <c r="V182" s="3"/>
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
-      <c r="AB182" s="3"/>
+      <c r="AB182" s="2">
+        <v>0</v>
+      </c>
       <c r="AC182" s="2"/>
-      <c r="AD182" s="2"/>
-      <c r="AE182" s="3"/>
-      <c r="AF182" s="2"/>
-      <c r="AG182" s="2"/>
-      <c r="AH182" s="3"/>
-      <c r="AI182" s="3"/>
-      <c r="AJ182" s="2"/>
-      <c r="AK182" s="3"/>
+      <c r="AD182" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE182" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF182" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG182" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH182" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI182" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ182" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK182" s="2">
+        <v>0</v>
+      </c>
       <c r="AL182" s="2"/>
-      <c r="AM182" s="2"/>
-    </row>
-    <row r="183" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
+      <c r="AM182" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO182" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C183" s="2">
+        <v>836</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2</v>
+      </c>
+      <c r="F183" s="2">
+        <v>1</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>3</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
+      <c r="L183" s="2">
+        <v>1</v>
+      </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="3"/>
-      <c r="U183" s="2"/>
+      <c r="S183" s="2">
+        <v>0</v>
+      </c>
+      <c r="T183" s="2">
+        <v>6</v>
+      </c>
+      <c r="U183" s="2">
+        <v>0</v>
+      </c>
       <c r="V183" s="3"/>
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
-      <c r="AB183" s="3"/>
+      <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
       <c r="AD183" s="2"/>
-      <c r="AE183" s="3"/>
-      <c r="AF183" s="2"/>
-      <c r="AG183" s="2"/>
-      <c r="AH183" s="3"/>
-      <c r="AI183" s="3"/>
+      <c r="AE183" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF183" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG183" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH183" s="2"/>
+      <c r="AI183" s="2"/>
       <c r="AJ183" s="2"/>
-      <c r="AK183" s="3"/>
+      <c r="AK183" s="2"/>
       <c r="AL183" s="2"/>
       <c r="AM183" s="2"/>
-    </row>
-    <row r="184" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
+      <c r="AO183" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C184" s="2">
+        <v>3793</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E184" s="2">
+        <v>1</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2">
+        <v>0</v>
+      </c>
+      <c r="K184" s="2">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2">
+        <v>0</v>
+      </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="3"/>
-      <c r="U184" s="2"/>
+      <c r="S184" s="2">
+        <v>1</v>
+      </c>
+      <c r="T184" s="2">
+        <v>0</v>
+      </c>
+      <c r="U184" s="2">
+        <v>1</v>
+      </c>
       <c r="V184" s="3"/>
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
-      <c r="AB184" s="3"/>
+      <c r="AB184" s="2">
+        <v>0</v>
+      </c>
       <c r="AC184" s="2"/>
-      <c r="AD184" s="2"/>
-      <c r="AE184" s="3"/>
+      <c r="AD184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE184" s="2">
+        <v>0</v>
+      </c>
       <c r="AF184" s="2"/>
-      <c r="AG184" s="2"/>
-      <c r="AH184" s="3"/>
-      <c r="AI184" s="3"/>
-      <c r="AJ184" s="2"/>
-      <c r="AK184" s="3"/>
+      <c r="AG184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI184" s="2"/>
+      <c r="AJ184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK184" s="2">
+        <v>0</v>
+      </c>
       <c r="AL184" s="2"/>
-      <c r="AM184" s="2"/>
-    </row>
-    <row r="185" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
+      <c r="AM184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO184" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4505</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E185" s="2">
+        <v>3</v>
+      </c>
+      <c r="F185" s="2">
+        <v>1</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2">
+        <v>0</v>
+      </c>
+      <c r="K185" s="2">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2">
+        <v>0</v>
+      </c>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
-      <c r="S185" s="3"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2"/>
+      <c r="S185" s="2">
+        <v>0</v>
+      </c>
+      <c r="T185" s="2">
+        <v>0</v>
+      </c>
+      <c r="U185" s="2">
+        <v>0</v>
+      </c>
       <c r="V185" s="3"/>
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
-      <c r="AB185" s="3"/>
+      <c r="AB185" s="2">
+        <v>0</v>
+      </c>
       <c r="AC185" s="2"/>
-      <c r="AD185" s="2"/>
-      <c r="AE185" s="3"/>
-      <c r="AF185" s="2"/>
-      <c r="AG185" s="2"/>
-      <c r="AH185" s="3"/>
-      <c r="AI185" s="3"/>
-      <c r="AJ185" s="2"/>
-      <c r="AK185" s="3"/>
+      <c r="AD185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE185" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF185" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG185" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI185" s="2"/>
+      <c r="AJ185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK185" s="2">
+        <v>0</v>
+      </c>
       <c r="AL185" s="2"/>
-      <c r="AM185" s="2"/>
-    </row>
-    <row r="186" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
+      <c r="AM185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO185" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A186" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C186" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" s="2">
+        <v>3</v>
+      </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
@@ -14640,7 +15421,7 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
-      <c r="S186" s="3"/>
+      <c r="S186" s="2"/>
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
       <c r="V186" s="3"/>
@@ -14649,111 +15430,230 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
-      <c r="AB186" s="3"/>
+      <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
       <c r="AD186" s="2"/>
-      <c r="AE186" s="3"/>
+      <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
       <c r="AG186" s="2"/>
-      <c r="AH186" s="3"/>
-      <c r="AI186" s="3"/>
+      <c r="AH186" s="2"/>
+      <c r="AI186" s="2"/>
       <c r="AJ186" s="2"/>
-      <c r="AK186" s="3"/>
+      <c r="AK186" s="2"/>
       <c r="AL186" s="2"/>
       <c r="AM186" s="2"/>
-    </row>
-    <row r="187" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
+      <c r="AO186" s="2"/>
+    </row>
+    <row r="187" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1895</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E187" s="2">
+        <v>2</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2">
+        <v>0</v>
+      </c>
+      <c r="K187" s="2">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2">
+        <v>0</v>
+      </c>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
-      <c r="S187" s="3"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2"/>
+      <c r="S187" s="2">
+        <v>0</v>
+      </c>
+      <c r="T187" s="2">
+        <v>0</v>
+      </c>
+      <c r="U187" s="2">
+        <v>0</v>
+      </c>
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
-      <c r="AB187" s="3"/>
+      <c r="AB187" s="2">
+        <v>0</v>
+      </c>
       <c r="AC187" s="2"/>
-      <c r="AD187" s="2"/>
-      <c r="AE187" s="3"/>
-      <c r="AF187" s="2"/>
-      <c r="AG187" s="2"/>
-      <c r="AH187" s="3"/>
-      <c r="AI187" s="3"/>
-      <c r="AJ187" s="2"/>
-      <c r="AK187" s="3"/>
+      <c r="AD187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE187" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF187" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG187" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI187" s="2"/>
+      <c r="AJ187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK187" s="2">
+        <v>0</v>
+      </c>
       <c r="AL187" s="2"/>
-      <c r="AM187" s="2"/>
-    </row>
-    <row r="188" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
+      <c r="AM187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO187" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C188" s="2">
+        <v>612</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188" s="2">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2">
+        <v>0</v>
+      </c>
+      <c r="K188" s="2">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2">
+        <v>1</v>
+      </c>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2"/>
+      <c r="S188" s="2">
+        <v>0</v>
+      </c>
+      <c r="T188" s="2">
+        <v>0</v>
+      </c>
+      <c r="U188" s="2">
+        <v>0</v>
+      </c>
       <c r="V188" s="3"/>
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
-      <c r="AB188" s="3"/>
+      <c r="AB188" s="2">
+        <v>0</v>
+      </c>
       <c r="AC188" s="2"/>
-      <c r="AD188" s="2"/>
-      <c r="AE188" s="3"/>
-      <c r="AF188" s="2"/>
-      <c r="AG188" s="2"/>
-      <c r="AH188" s="3"/>
-      <c r="AI188" s="3"/>
-      <c r="AJ188" s="2"/>
-      <c r="AK188" s="3"/>
+      <c r="AD188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE188" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF188" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG188" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI188" s="2"/>
+      <c r="AJ188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK188" s="2">
+        <v>0</v>
+      </c>
       <c r="AL188" s="2"/>
-      <c r="AM188" s="2"/>
-    </row>
-    <row r="189" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="AM188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO188" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:41" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
+      <c r="B189" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1</v>
+      </c>
+      <c r="F189" s="2">
+        <v>1</v>
+      </c>
+      <c r="G189" s="2">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2">
+        <v>0</v>
+      </c>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -14763,120 +15663,233 @@
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
-      <c r="S189" s="3"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2"/>
+      <c r="S189" s="2">
+        <v>0</v>
+      </c>
+      <c r="T189" s="2">
+        <v>4</v>
+      </c>
+      <c r="U189" s="2">
+        <v>0</v>
+      </c>
       <c r="V189" s="3"/>
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
-      <c r="AB189" s="3"/>
+      <c r="AB189" s="2">
+        <v>1</v>
+      </c>
       <c r="AC189" s="2"/>
-      <c r="AD189" s="2"/>
-      <c r="AE189" s="3"/>
+      <c r="AD189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE189" s="2">
+        <v>0</v>
+      </c>
       <c r="AF189" s="2"/>
       <c r="AG189" s="2"/>
-      <c r="AH189" s="3"/>
-      <c r="AI189" s="3"/>
+      <c r="AH189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI189" s="2"/>
       <c r="AJ189" s="2"/>
-      <c r="AK189" s="3"/>
+      <c r="AK189" s="2">
+        <v>0</v>
+      </c>
       <c r="AL189" s="2"/>
       <c r="AM189" s="2"/>
-    </row>
-    <row r="190" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
+      <c r="AO189" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C190" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2</v>
+      </c>
+      <c r="F190" s="2">
+        <v>1</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2">
+        <v>1</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
+      <c r="L190" s="2">
+        <v>1</v>
+      </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="3"/>
-      <c r="U190" s="2"/>
+      <c r="S190" s="2">
+        <v>0</v>
+      </c>
+      <c r="T190" s="2">
+        <v>2</v>
+      </c>
+      <c r="U190" s="2">
+        <v>2</v>
+      </c>
       <c r="V190" s="3"/>
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
-      <c r="AB190" s="3"/>
+      <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
       <c r="AD190" s="2"/>
-      <c r="AE190" s="3"/>
+      <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
       <c r="AG190" s="2"/>
-      <c r="AH190" s="3"/>
-      <c r="AI190" s="3"/>
+      <c r="AH190" s="2"/>
+      <c r="AI190" s="2"/>
       <c r="AJ190" s="2"/>
-      <c r="AK190" s="3"/>
+      <c r="AK190" s="2"/>
       <c r="AL190" s="2"/>
       <c r="AM190" s="2"/>
-    </row>
-    <row r="191" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
+      <c r="AO190" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C191" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+      <c r="F191" s="2">
+        <v>0</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2">
+        <v>0</v>
+      </c>
+      <c r="K191" s="2">
+        <v>0</v>
+      </c>
+      <c r="L191" s="2">
+        <v>0</v>
+      </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
-      <c r="S191" s="2"/>
-      <c r="T191" s="3"/>
-      <c r="U191" s="2"/>
+      <c r="S191" s="2">
+        <v>0</v>
+      </c>
+      <c r="T191" s="2">
+        <v>0</v>
+      </c>
+      <c r="U191" s="2">
+        <v>0</v>
+      </c>
       <c r="V191" s="3"/>
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
-      <c r="AB191" s="3"/>
+      <c r="AB191" s="2">
+        <v>0</v>
+      </c>
       <c r="AC191" s="2"/>
-      <c r="AD191" s="2"/>
-      <c r="AE191" s="3"/>
+      <c r="AD191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE191" s="2">
+        <v>0</v>
+      </c>
       <c r="AF191" s="2"/>
-      <c r="AG191" s="2"/>
-      <c r="AH191" s="3"/>
-      <c r="AI191" s="3"/>
-      <c r="AJ191" s="2"/>
-      <c r="AK191" s="3"/>
+      <c r="AG191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI191" s="2"/>
+      <c r="AJ191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK191" s="2">
+        <v>0</v>
+      </c>
       <c r="AL191" s="2"/>
-      <c r="AM191" s="2"/>
-    </row>
-    <row r="192" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
+      <c r="AM191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO191" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C192" s="2">
+        <v>5830</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E192" s="2">
+        <v>3</v>
+      </c>
       <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
+      <c r="G192" s="2">
+        <v>2</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2">
+        <v>2</v>
+      </c>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -14887,7 +15900,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
-      <c r="T192" s="3"/>
+      <c r="T192" s="2"/>
       <c r="U192" s="2"/>
       <c r="V192" s="3"/>
       <c r="W192" s="2"/>
@@ -14895,346 +15908,2981 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
-      <c r="AB192" s="3"/>
+      <c r="AB192" s="2">
+        <v>1</v>
+      </c>
       <c r="AC192" s="2"/>
       <c r="AD192" s="2"/>
-      <c r="AE192" s="3"/>
+      <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
       <c r="AG192" s="2"/>
-      <c r="AH192" s="3"/>
-      <c r="AI192" s="3"/>
+      <c r="AH192" s="2"/>
+      <c r="AI192" s="2"/>
       <c r="AJ192" s="2"/>
-      <c r="AK192" s="3"/>
+      <c r="AK192" s="2"/>
       <c r="AL192" s="2"/>
       <c r="AM192" s="2"/>
-    </row>
-    <row r="193" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
+      <c r="AO192" s="2"/>
+    </row>
+    <row r="193" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A193" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C193" s="2">
+        <v>611</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E193" s="2">
+        <v>2</v>
+      </c>
+      <c r="F193" s="2">
+        <v>1</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2">
+        <v>1</v>
+      </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
+      <c r="L193" s="2">
+        <v>0</v>
+      </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="3"/>
-      <c r="U193" s="2"/>
+      <c r="S193" s="2">
+        <v>0</v>
+      </c>
+      <c r="T193" s="2">
+        <v>0</v>
+      </c>
+      <c r="U193" s="2">
+        <v>0</v>
+      </c>
       <c r="V193" s="3"/>
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
-      <c r="AB193" s="3"/>
+      <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
       <c r="AD193" s="2"/>
-      <c r="AE193" s="3"/>
+      <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
       <c r="AG193" s="2"/>
-      <c r="AH193" s="3"/>
-      <c r="AI193" s="3"/>
+      <c r="AH193" s="2"/>
+      <c r="AI193" s="2"/>
       <c r="AJ193" s="2"/>
-      <c r="AK193" s="3"/>
+      <c r="AK193" s="2"/>
       <c r="AL193" s="2"/>
       <c r="AM193" s="2"/>
-    </row>
-    <row r="194" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
+      <c r="AO193" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C194" s="2">
+        <v>8326</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" s="2">
+        <v>2</v>
+      </c>
+      <c r="F194" s="2">
+        <v>1</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2">
+        <v>1</v>
+      </c>
+      <c r="J194" s="2">
+        <v>0</v>
+      </c>
+      <c r="K194" s="2">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2">
+        <v>1</v>
+      </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="3"/>
-      <c r="U194" s="2"/>
+      <c r="S194" s="2">
+        <v>0</v>
+      </c>
+      <c r="T194" s="2">
+        <v>0</v>
+      </c>
+      <c r="U194" s="2">
+        <v>0</v>
+      </c>
       <c r="V194" s="3"/>
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
-      <c r="AB194" s="3"/>
+      <c r="AB194" s="2">
+        <v>0</v>
+      </c>
       <c r="AC194" s="2"/>
-      <c r="AD194" s="2"/>
-      <c r="AE194" s="3"/>
+      <c r="AD194" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE194" s="2">
+        <v>0</v>
+      </c>
       <c r="AF194" s="2"/>
-      <c r="AG194" s="2"/>
-      <c r="AH194" s="3"/>
-      <c r="AI194" s="3"/>
-      <c r="AJ194" s="2"/>
-      <c r="AK194" s="3"/>
+      <c r="AG194" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH194" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI194" s="2"/>
+      <c r="AJ194" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK194" s="2">
+        <v>0</v>
+      </c>
       <c r="AL194" s="2"/>
       <c r="AM194" s="2"/>
-    </row>
-    <row r="195" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
+      <c r="AO194" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="195" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C195" s="2">
+        <v>2912</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" s="2">
+        <v>1</v>
+      </c>
+      <c r="F195" s="2">
+        <v>0</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2">
+        <v>1</v>
+      </c>
+      <c r="J195" s="2">
+        <v>0</v>
+      </c>
+      <c r="K195" s="2">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2">
+        <v>0</v>
+      </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
-      <c r="S195" s="3"/>
-      <c r="T195" s="2"/>
-      <c r="U195" s="2"/>
+      <c r="S195" s="2">
+        <v>3</v>
+      </c>
+      <c r="T195" s="2">
+        <v>0</v>
+      </c>
+      <c r="U195" s="2">
+        <v>3</v>
+      </c>
       <c r="V195" s="3"/>
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
-      <c r="AB195" s="3"/>
+      <c r="AB195" s="2">
+        <v>0</v>
+      </c>
       <c r="AC195" s="2"/>
-      <c r="AD195" s="2"/>
-      <c r="AE195" s="3"/>
-      <c r="AF195" s="2"/>
-      <c r="AG195" s="2"/>
-      <c r="AH195" s="3"/>
-      <c r="AI195" s="3"/>
-      <c r="AJ195" s="2"/>
-      <c r="AK195" s="3"/>
+      <c r="AD195" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE195" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF195" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG195" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH195" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI195" s="2"/>
+      <c r="AJ195" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK195" s="2">
+        <v>0</v>
+      </c>
       <c r="AL195" s="2"/>
       <c r="AM195" s="2"/>
-    </row>
-    <row r="196" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
+      <c r="AO195" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A196" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C196" s="2">
+        <v>620</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E196" s="2">
+        <v>1</v>
+      </c>
+      <c r="F196" s="2">
+        <v>1</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2">
+        <v>1</v>
+      </c>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
+      <c r="L196" s="2">
+        <v>0</v>
+      </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
-      <c r="S196" s="3"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2"/>
+      <c r="S196" s="2">
+        <v>0</v>
+      </c>
+      <c r="T196" s="2">
+        <v>0</v>
+      </c>
+      <c r="U196" s="2">
+        <v>0</v>
+      </c>
       <c r="V196" s="3"/>
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
-      <c r="AB196" s="3"/>
+      <c r="AB196" s="2">
+        <v>1</v>
+      </c>
       <c r="AC196" s="2"/>
       <c r="AD196" s="2"/>
-      <c r="AE196" s="3"/>
+      <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
       <c r="AG196" s="2"/>
-      <c r="AH196" s="3"/>
-      <c r="AI196" s="3"/>
+      <c r="AH196" s="2"/>
+      <c r="AI196" s="2"/>
       <c r="AJ196" s="2"/>
-      <c r="AK196" s="3"/>
+      <c r="AK196" s="2"/>
       <c r="AL196" s="2"/>
       <c r="AM196" s="2"/>
-    </row>
-    <row r="197" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
+      <c r="AO196" s="2"/>
+    </row>
+    <row r="197" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C197" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E197" s="2">
+        <v>2</v>
+      </c>
+      <c r="F197" s="2">
+        <v>1</v>
+      </c>
+      <c r="G197" s="2">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2">
+        <v>0</v>
+      </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
+      <c r="L197" s="2">
+        <v>1</v>
+      </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="3"/>
-      <c r="U197" s="2"/>
+      <c r="S197" s="2">
+        <v>0</v>
+      </c>
+      <c r="T197" s="2">
+        <v>0</v>
+      </c>
+      <c r="U197" s="2">
+        <v>0</v>
+      </c>
       <c r="V197" s="3"/>
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
-      <c r="AB197" s="3"/>
-      <c r="AC197" s="2"/>
-      <c r="AD197" s="2"/>
-      <c r="AE197" s="3"/>
+      <c r="AB197" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC197" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD197" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE197" s="2">
+        <v>1</v>
+      </c>
       <c r="AF197" s="2"/>
-      <c r="AG197" s="2"/>
-      <c r="AH197" s="3"/>
-      <c r="AI197" s="3"/>
+      <c r="AG197" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH197" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI197" s="2"/>
       <c r="AJ197" s="2"/>
-      <c r="AK197" s="3"/>
+      <c r="AK197" s="2">
+        <v>0</v>
+      </c>
       <c r="AL197" s="2"/>
       <c r="AM197" s="2"/>
-    </row>
-    <row r="198" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
+      <c r="AO197" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="198" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" s="2">
+        <v>836</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" s="2">
+        <v>2</v>
+      </c>
+      <c r="F198" s="2">
+        <v>1</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2">
+        <v>1</v>
+      </c>
+      <c r="I198" s="2">
+        <v>1</v>
+      </c>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
+      <c r="L198" s="2">
+        <v>1</v>
+      </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
-      <c r="S198" s="3"/>
-      <c r="T198" s="2"/>
-      <c r="U198" s="2"/>
+      <c r="S198" s="2">
+        <v>0</v>
+      </c>
+      <c r="T198" s="2">
+        <v>0</v>
+      </c>
+      <c r="U198" s="2">
+        <v>0</v>
+      </c>
       <c r="V198" s="3"/>
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
-      <c r="AB198" s="3"/>
+      <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
       <c r="AD198" s="2"/>
-      <c r="AE198" s="3"/>
-      <c r="AF198" s="2"/>
-      <c r="AG198" s="2"/>
-      <c r="AH198" s="3"/>
-      <c r="AI198" s="3"/>
-      <c r="AJ198" s="2"/>
-      <c r="AK198" s="3"/>
-      <c r="AL198" s="2"/>
-      <c r="AM198" s="2"/>
-    </row>
-    <row r="199" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
+      <c r="AE198" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF198" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG198" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH198" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI198" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ198" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK198" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL198" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM198" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO198" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C199" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" s="2">
+        <v>3</v>
+      </c>
+      <c r="F199" s="2">
+        <v>1</v>
+      </c>
+      <c r="G199" s="2">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2">
+        <v>0</v>
+      </c>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
+      <c r="L199" s="2">
+        <v>1</v>
+      </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
+      <c r="S199" s="2">
+        <v>0</v>
+      </c>
+      <c r="T199" s="2">
+        <v>0</v>
+      </c>
+      <c r="U199" s="2">
+        <v>0</v>
+      </c>
       <c r="V199" s="3"/>
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
-      <c r="AB199" s="3"/>
+      <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
       <c r="AD199" s="2"/>
-      <c r="AE199" s="3"/>
+      <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
       <c r="AG199" s="2"/>
-      <c r="AH199" s="3"/>
-      <c r="AI199" s="3"/>
+      <c r="AH199" s="2"/>
+      <c r="AI199" s="2"/>
       <c r="AJ199" s="2"/>
-      <c r="AK199" s="3"/>
+      <c r="AK199" s="2"/>
       <c r="AL199" s="2"/>
       <c r="AM199" s="2"/>
-    </row>
-    <row r="200" spans="1:39" ht="14" x14ac:dyDescent="0.15">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
+      <c r="AO199" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="200" spans="1:41" ht="14" x14ac:dyDescent="0.15">
+      <c r="A200" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C200" s="2">
+        <v>888</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" s="2">
+        <v>1</v>
+      </c>
+      <c r="F200" s="2">
+        <v>0</v>
+      </c>
+      <c r="G200" s="2">
+        <v>2</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2">
+        <v>1</v>
+      </c>
+      <c r="J200" s="2">
+        <v>0</v>
+      </c>
+      <c r="K200" s="2">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2">
+        <v>1</v>
+      </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="3"/>
-      <c r="U200" s="2"/>
+      <c r="S200" s="2">
+        <v>4</v>
+      </c>
+      <c r="T200" s="2">
+        <v>0</v>
+      </c>
+      <c r="U200" s="2">
+        <v>1</v>
+      </c>
       <c r="V200" s="3"/>
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
-      <c r="AB200" s="3"/>
+      <c r="AB200" s="2">
+        <v>0</v>
+      </c>
       <c r="AC200" s="2"/>
-      <c r="AD200" s="2"/>
-      <c r="AE200" s="3"/>
+      <c r="AD200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE200" s="2">
+        <v>1</v>
+      </c>
       <c r="AF200" s="2"/>
-      <c r="AG200" s="2"/>
-      <c r="AH200" s="3"/>
-      <c r="AI200" s="3"/>
-      <c r="AJ200" s="2"/>
-      <c r="AK200" s="3"/>
+      <c r="AG200" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI200" s="2"/>
+      <c r="AJ200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK200" s="2">
+        <v>0</v>
+      </c>
       <c r="AL200" s="2"/>
-      <c r="AM200" s="2"/>
+      <c r="AM200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO200" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="201" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C201" s="2">
+        <v>2912</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1</v>
+      </c>
+      <c r="F201" s="2">
+        <v>1</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2">
+        <v>1</v>
+      </c>
+      <c r="J201" s="2">
+        <v>0</v>
+      </c>
+      <c r="K201" s="2">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2">
+        <v>1</v>
+      </c>
+      <c r="S201" s="2">
+        <v>3</v>
+      </c>
+      <c r="T201" s="2">
+        <v>0</v>
+      </c>
+      <c r="U201" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC201" s="2"/>
+      <c r="AD201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE201" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF201" s="2"/>
+      <c r="AG201" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI201" s="2"/>
+      <c r="AJ201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL201" s="2"/>
+      <c r="AM201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO201" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C202" s="2">
+        <v>5830</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E202" s="2">
+        <v>3</v>
+      </c>
+      <c r="F202" s="2">
+        <v>1</v>
+      </c>
+      <c r="G202" s="2">
+        <v>0</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0</v>
+      </c>
+      <c r="I202" s="2">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2">
+        <v>0</v>
+      </c>
+      <c r="K202" s="2">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2">
+        <v>1</v>
+      </c>
+      <c r="S202" s="2">
+        <v>1</v>
+      </c>
+      <c r="T202" s="2">
+        <v>1</v>
+      </c>
+      <c r="U202" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC202" s="2"/>
+      <c r="AD202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF202" s="2"/>
+      <c r="AG202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI202" s="2"/>
+      <c r="AJ202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL202" s="2"/>
+      <c r="AM202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO202" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="203" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1895</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E203" s="2">
+        <v>2</v>
+      </c>
+      <c r="F203" s="2">
+        <v>1</v>
+      </c>
+      <c r="G203" s="2">
+        <v>0</v>
+      </c>
+      <c r="H203" s="2">
+        <v>1</v>
+      </c>
+      <c r="I203" s="2">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2">
+        <v>0</v>
+      </c>
+      <c r="S203" s="2">
+        <v>0</v>
+      </c>
+      <c r="T203" s="2">
+        <v>3</v>
+      </c>
+      <c r="U203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG203" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI203" s="2"/>
+      <c r="AJ203" s="2"/>
+      <c r="AK203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL203" s="2"/>
+      <c r="AM203" s="2"/>
+      <c r="AO203" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C204" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E204" s="2">
+        <v>2</v>
+      </c>
+      <c r="F204" s="2">
+        <v>1</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0</v>
+      </c>
+      <c r="H204" s="2">
+        <v>1</v>
+      </c>
+      <c r="I204" s="2">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2">
+        <v>1</v>
+      </c>
+      <c r="S204" s="2">
+        <v>0</v>
+      </c>
+      <c r="T204" s="2">
+        <v>11</v>
+      </c>
+      <c r="U204" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB204" s="2"/>
+      <c r="AC204" s="2"/>
+      <c r="AD204" s="2"/>
+      <c r="AE204" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF204" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG204" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH204" s="2"/>
+      <c r="AI204" s="2"/>
+      <c r="AJ204" s="2"/>
+      <c r="AK204" s="2"/>
+      <c r="AL204" s="2"/>
+      <c r="AM204" s="2"/>
+      <c r="AO204" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="205" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C205" s="2">
+        <v>4505</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" s="2">
+        <v>3</v>
+      </c>
+      <c r="F205" s="2">
+        <v>0</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2">
+        <v>0</v>
+      </c>
+      <c r="K205" s="2">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2">
+        <v>1</v>
+      </c>
+      <c r="S205" s="2">
+        <v>0</v>
+      </c>
+      <c r="T205" s="2">
+        <v>2</v>
+      </c>
+      <c r="U205" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB205" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC205" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD205" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="2"/>
+      <c r="AG205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI205" s="2"/>
+      <c r="AJ205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="2"/>
+      <c r="AM205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO205" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="206" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C206" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E206" s="2">
+        <v>3</v>
+      </c>
+      <c r="F206" s="2">
+        <v>1</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2">
+        <v>1</v>
+      </c>
+      <c r="S206" s="2">
+        <v>0</v>
+      </c>
+      <c r="T206" s="2">
+        <v>3</v>
+      </c>
+      <c r="U206" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB206" s="2"/>
+      <c r="AC206" s="2"/>
+      <c r="AD206" s="2"/>
+      <c r="AE206" s="2"/>
+      <c r="AF206" s="2"/>
+      <c r="AG206" s="2"/>
+      <c r="AH206" s="2"/>
+      <c r="AI206" s="2"/>
+      <c r="AJ206" s="2"/>
+      <c r="AK206" s="2"/>
+      <c r="AL206" s="2"/>
+      <c r="AM206" s="2"/>
+      <c r="AO206" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="207" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C207" s="2">
+        <v>620</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1</v>
+      </c>
+      <c r="F207" s="2">
+        <v>0</v>
+      </c>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2">
+        <v>0</v>
+      </c>
+      <c r="K207" s="2">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2">
+        <v>1</v>
+      </c>
+      <c r="S207" s="2">
+        <v>0</v>
+      </c>
+      <c r="T207" s="2">
+        <v>1</v>
+      </c>
+      <c r="U207" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC207" s="2"/>
+      <c r="AD207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE207" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF207" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG207" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI207" s="2"/>
+      <c r="AJ207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="2"/>
+      <c r="AM207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO207" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C208" s="2">
+        <v>4242</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E208" s="2">
+        <v>1</v>
+      </c>
+      <c r="F208" s="2">
+        <v>0</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2">
+        <v>0</v>
+      </c>
+      <c r="K208" s="2">
+        <v>1</v>
+      </c>
+      <c r="L208" s="2">
+        <v>0</v>
+      </c>
+      <c r="S208" s="2">
+        <v>0</v>
+      </c>
+      <c r="T208" s="2">
+        <v>2</v>
+      </c>
+      <c r="U208" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="2"/>
+      <c r="AD208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF208" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG208" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI208" s="2"/>
+      <c r="AJ208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="2"/>
+      <c r="AM208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="209" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C209" s="2">
+        <v>836</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E209" s="2">
+        <v>2</v>
+      </c>
+      <c r="F209" s="2">
+        <v>1</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0</v>
+      </c>
+      <c r="H209" s="2">
+        <v>3</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2">
+        <v>1</v>
+      </c>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2">
+        <v>10</v>
+      </c>
+      <c r="U209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB209" s="2"/>
+      <c r="AC209" s="2"/>
+      <c r="AD209" s="2"/>
+      <c r="AE209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ209" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK209" s="2"/>
+      <c r="AL209" s="2"/>
+      <c r="AM209" s="2"/>
+      <c r="AO209" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C210" s="2">
+        <v>2988</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E210" s="2">
+        <v>2</v>
+      </c>
+      <c r="F210" s="2">
+        <v>1</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2">
+        <v>1</v>
+      </c>
+      <c r="S210" s="2">
+        <v>0</v>
+      </c>
+      <c r="T210" s="2">
+        <v>1</v>
+      </c>
+      <c r="U210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC210" s="2"/>
+      <c r="AD210" s="2"/>
+      <c r="AE210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="2"/>
+      <c r="AG210" s="2"/>
+      <c r="AH210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI210" s="2"/>
+      <c r="AJ210" s="2"/>
+      <c r="AK210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="2"/>
+      <c r="AM210" s="2"/>
+      <c r="AO210" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="211" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5830</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E211" s="2">
+        <v>3</v>
+      </c>
+      <c r="F211" s="2">
+        <v>1</v>
+      </c>
+      <c r="G211" s="2">
+        <v>0</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2">
+        <v>1</v>
+      </c>
+      <c r="J211" s="2">
+        <v>0</v>
+      </c>
+      <c r="K211" s="2">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2">
+        <v>1</v>
+      </c>
+      <c r="S211" s="2">
+        <v>0</v>
+      </c>
+      <c r="T211" s="2">
+        <v>2</v>
+      </c>
+      <c r="U211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC211" s="2"/>
+      <c r="AD211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF211" s="2"/>
+      <c r="AG211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI211" s="2"/>
+      <c r="AJ211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="2"/>
+      <c r="AM211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO211" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="212" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C212" s="2">
+        <v>2912</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E212" s="2">
+        <v>1</v>
+      </c>
+      <c r="F212" s="2">
+        <v>1</v>
+      </c>
+      <c r="G212" s="2">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2">
+        <v>0</v>
+      </c>
+      <c r="I212" s="2">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2">
+        <v>0</v>
+      </c>
+      <c r="K212" s="2">
+        <v>1</v>
+      </c>
+      <c r="L212" s="2">
+        <v>1</v>
+      </c>
+      <c r="S212" s="2">
+        <v>2</v>
+      </c>
+      <c r="T212" s="2">
+        <v>0</v>
+      </c>
+      <c r="U212" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC212" s="2"/>
+      <c r="AD212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE212" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF212" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG212" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI212" s="2"/>
+      <c r="AJ212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL212" s="2"/>
+      <c r="AM212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO212" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C213" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E213" s="2">
+        <v>3</v>
+      </c>
+      <c r="F213" s="2">
+        <v>1</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0</v>
+      </c>
+      <c r="H213" s="2">
+        <v>0</v>
+      </c>
+      <c r="I213" s="2">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2">
+        <v>1</v>
+      </c>
+      <c r="S213" s="2">
+        <v>0</v>
+      </c>
+      <c r="T213" s="2">
+        <v>0</v>
+      </c>
+      <c r="U213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC213" s="2"/>
+      <c r="AD213" s="2"/>
+      <c r="AE213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF213" s="2"/>
+      <c r="AG213" s="2"/>
+      <c r="AH213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI213" s="2"/>
+      <c r="AJ213" s="2"/>
+      <c r="AK213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL213" s="2"/>
+      <c r="AM213" s="2"/>
+      <c r="AO213" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="214" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C214" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E214" s="2">
+        <v>2</v>
+      </c>
+      <c r="F214" s="2">
+        <v>1</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2">
+        <v>1</v>
+      </c>
+      <c r="K214" s="2">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2">
+        <v>1</v>
+      </c>
+      <c r="S214" s="2">
+        <v>0</v>
+      </c>
+      <c r="T214" s="2">
+        <v>7</v>
+      </c>
+      <c r="U214" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB214" s="2"/>
+      <c r="AC214" s="2"/>
+      <c r="AD214" s="2"/>
+      <c r="AE214" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF214" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG214" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH214" s="2"/>
+      <c r="AI214" s="2"/>
+      <c r="AJ214" s="2"/>
+      <c r="AK214" s="2"/>
+      <c r="AL214" s="2"/>
+      <c r="AM214" s="2"/>
+      <c r="AO214" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="215" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C215" s="2">
+        <v>1895</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E215" s="2">
+        <v>2</v>
+      </c>
+      <c r="F215" s="2">
+        <v>1</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+      <c r="H215" s="2">
+        <v>1</v>
+      </c>
+      <c r="I215" s="2">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2">
+        <v>0</v>
+      </c>
+      <c r="S215" s="2">
+        <v>0</v>
+      </c>
+      <c r="T215" s="2">
+        <v>0</v>
+      </c>
+      <c r="U215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC215" s="2"/>
+      <c r="AD215" s="2"/>
+      <c r="AE215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="2"/>
+      <c r="AG215" s="2"/>
+      <c r="AH215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI215" s="2"/>
+      <c r="AJ215" s="2"/>
+      <c r="AK215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL215" s="2"/>
+      <c r="AM215" s="2"/>
+      <c r="AO215" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="216" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C216" s="2">
+        <v>4242</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E216" s="2">
+        <v>1</v>
+      </c>
+      <c r="F216" s="2">
+        <v>1</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0</v>
+      </c>
+      <c r="H216" s="2">
+        <v>1</v>
+      </c>
+      <c r="I216" s="2">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2">
+        <v>0</v>
+      </c>
+      <c r="K216" s="2">
+        <v>1</v>
+      </c>
+      <c r="L216" s="2">
+        <v>0</v>
+      </c>
+      <c r="S216" s="2">
+        <v>0</v>
+      </c>
+      <c r="T216" s="2">
+        <v>0</v>
+      </c>
+      <c r="U216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC216" s="2"/>
+      <c r="AD216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF216" s="2"/>
+      <c r="AG216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI216" s="2"/>
+      <c r="AJ216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL216" s="2"/>
+      <c r="AM216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO216" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="217" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E217" s="2">
+        <v>3</v>
+      </c>
+      <c r="F217" s="2">
+        <v>1</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0</v>
+      </c>
+      <c r="H217" s="2">
+        <v>1</v>
+      </c>
+      <c r="I217" s="2">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2">
+        <v>1</v>
+      </c>
+      <c r="S217" s="2">
+        <v>0</v>
+      </c>
+      <c r="T217" s="2">
+        <v>2</v>
+      </c>
+      <c r="U217" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC217" s="2"/>
+      <c r="AD217" s="2"/>
+      <c r="AE217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="2"/>
+      <c r="AG217" s="2"/>
+      <c r="AH217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI217" s="2"/>
+      <c r="AJ217" s="2"/>
+      <c r="AK217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL217" s="2"/>
+      <c r="AM217" s="2"/>
+      <c r="AO217" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" s="2">
+        <v>4505</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E218" s="2">
+        <v>3</v>
+      </c>
+      <c r="F218" s="2">
+        <v>0</v>
+      </c>
+      <c r="G218" s="2">
+        <v>0</v>
+      </c>
+      <c r="H218" s="2">
+        <v>0</v>
+      </c>
+      <c r="I218" s="2">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2">
+        <v>0</v>
+      </c>
+      <c r="K218" s="2">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2">
+        <v>1</v>
+      </c>
+      <c r="S218" s="2">
+        <v>0</v>
+      </c>
+      <c r="T218" s="2">
+        <v>0</v>
+      </c>
+      <c r="U218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB218" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC218" s="2"/>
+      <c r="AD218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="2"/>
+      <c r="AG218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI218" s="2"/>
+      <c r="AJ218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL218" s="2"/>
+      <c r="AM218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO218" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="219" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C219" s="2">
+        <v>620</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E219" s="2">
+        <v>1</v>
+      </c>
+      <c r="F219" s="2">
+        <v>1</v>
+      </c>
+      <c r="G219" s="2">
+        <v>0</v>
+      </c>
+      <c r="H219" s="2">
+        <v>0</v>
+      </c>
+      <c r="I219" s="2">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2">
+        <v>0</v>
+      </c>
+      <c r="K219" s="2">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2">
+        <v>1</v>
+      </c>
+      <c r="S219" s="2">
+        <v>0</v>
+      </c>
+      <c r="T219" s="2">
+        <v>3</v>
+      </c>
+      <c r="U219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC219" s="2"/>
+      <c r="AD219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF219" s="2"/>
+      <c r="AG219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI219" s="2"/>
+      <c r="AJ219" s="2"/>
+      <c r="AK219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM219" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO219" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C220" s="2">
+        <v>888</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E220" s="2">
+        <v>1</v>
+      </c>
+      <c r="F220" s="2">
+        <v>0</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0</v>
+      </c>
+      <c r="I220" s="2">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2">
+        <v>0</v>
+      </c>
+      <c r="S220" s="2">
+        <v>4</v>
+      </c>
+      <c r="T220" s="2">
+        <v>0</v>
+      </c>
+      <c r="U220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC220" s="2"/>
+      <c r="AD220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF220" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG220" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI220" s="2"/>
+      <c r="AJ220" s="2"/>
+      <c r="AK220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO220" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="221" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="2">
+        <v>620</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+      <c r="F221" s="2">
+        <v>1</v>
+      </c>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2">
+        <v>1</v>
+      </c>
+      <c r="I221" s="2">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2">
+        <v>1</v>
+      </c>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2">
+        <v>7</v>
+      </c>
+      <c r="U221" s="2"/>
+      <c r="AB221" s="2"/>
+      <c r="AC221" s="2"/>
+      <c r="AD221" s="2"/>
+      <c r="AE221" s="2"/>
+      <c r="AF221" s="2"/>
+      <c r="AG221" s="2"/>
+      <c r="AH221" s="2"/>
+      <c r="AI221" s="2"/>
+      <c r="AJ221" s="2"/>
+      <c r="AK221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO221" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="222" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C222" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E222" s="2">
+        <v>2</v>
+      </c>
+      <c r="F222" s="2">
+        <v>1</v>
+      </c>
+      <c r="G222" s="2">
+        <v>0</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2">
+        <v>1</v>
+      </c>
+      <c r="S222" s="2">
+        <v>0</v>
+      </c>
+      <c r="T222" s="2">
+        <v>6</v>
+      </c>
+      <c r="U222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO222" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C223" s="2">
+        <v>836</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E223" s="2">
+        <v>2</v>
+      </c>
+      <c r="F223" s="2">
+        <v>1</v>
+      </c>
+      <c r="G223" s="2">
+        <v>0</v>
+      </c>
+      <c r="H223" s="2">
+        <v>3</v>
+      </c>
+      <c r="I223" s="2">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2">
+        <v>1</v>
+      </c>
+      <c r="S223" s="2">
+        <v>0</v>
+      </c>
+      <c r="T223" s="2">
+        <v>8</v>
+      </c>
+      <c r="U223" s="2"/>
+      <c r="AB223" s="2"/>
+      <c r="AC223" s="2"/>
+      <c r="AD223" s="2"/>
+      <c r="AE223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK223" s="2"/>
+      <c r="AO223" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="224" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C224" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E224" s="2">
+        <v>3</v>
+      </c>
+      <c r="F224" s="2">
+        <v>1</v>
+      </c>
+      <c r="G224" s="2">
+        <v>0</v>
+      </c>
+      <c r="H224" s="2">
+        <v>0</v>
+      </c>
+      <c r="I224" s="2">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2">
+        <v>1</v>
+      </c>
+      <c r="S224" s="2">
+        <v>0</v>
+      </c>
+      <c r="T224" s="2">
+        <v>0</v>
+      </c>
+      <c r="U224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC224" s="2"/>
+      <c r="AD224" s="2"/>
+      <c r="AE224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF224" s="2"/>
+      <c r="AG224" s="2"/>
+      <c r="AH224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI224" s="2"/>
+      <c r="AJ224" s="2"/>
+      <c r="AK224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO224" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="225" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C225" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E225" s="2">
+        <v>3</v>
+      </c>
+      <c r="F225" s="2">
+        <v>1</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0</v>
+      </c>
+      <c r="H225" s="2">
+        <v>1</v>
+      </c>
+      <c r="I225" s="2">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2">
+        <v>0</v>
+      </c>
+      <c r="K225" s="2">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2">
+        <v>1</v>
+      </c>
+      <c r="S225" s="2">
+        <v>0</v>
+      </c>
+      <c r="T225" s="2">
+        <v>1</v>
+      </c>
+      <c r="U225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="2"/>
+      <c r="AD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="2"/>
+      <c r="AG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="2"/>
+      <c r="AJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO225" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="226" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C226" s="2">
+        <v>888</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+      <c r="F226" s="2">
+        <v>0</v>
+      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2">
+        <v>3</v>
+      </c>
+      <c r="I226" s="2">
+        <v>2</v>
+      </c>
+      <c r="J226" s="2">
+        <v>0</v>
+      </c>
+      <c r="K226" s="2">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2">
+        <v>1</v>
+      </c>
+      <c r="S226" s="2">
+        <v>0</v>
+      </c>
+      <c r="T226" s="2">
+        <v>4</v>
+      </c>
+      <c r="U226" s="2"/>
+      <c r="AB226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC226" s="2"/>
+      <c r="AD226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF226" s="2"/>
+      <c r="AG226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH226" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI226" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ226" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO226" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="227" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2849</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E227" s="2">
+        <v>3</v>
+      </c>
+      <c r="F227" s="2">
+        <v>1</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>0</v>
+      </c>
+      <c r="I227" s="2">
+        <v>1</v>
+      </c>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2">
+        <v>1</v>
+      </c>
+      <c r="S227" s="2">
+        <v>0</v>
+      </c>
+      <c r="T227" s="2">
+        <v>0</v>
+      </c>
+      <c r="U227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC227" s="2"/>
+      <c r="AD227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF227" s="2"/>
+      <c r="AG227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH227" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI227" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ227" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL227" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM227" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO227" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C228" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E228" s="2">
+        <v>3</v>
+      </c>
+      <c r="F228" s="2">
+        <v>1</v>
+      </c>
+      <c r="G228" s="2">
+        <v>0</v>
+      </c>
+      <c r="H228" s="2">
+        <v>1</v>
+      </c>
+      <c r="I228" s="2">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2">
+        <v>0</v>
+      </c>
+      <c r="K228" s="2">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2">
+        <v>1</v>
+      </c>
+      <c r="S228" s="2">
+        <v>0</v>
+      </c>
+      <c r="T228" s="2">
+        <v>2</v>
+      </c>
+      <c r="U228" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB228" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC228" s="2"/>
+      <c r="AD228" s="2"/>
+      <c r="AE228" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF228" s="2"/>
+      <c r="AG228" s="2"/>
+      <c r="AH228" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI228" s="2"/>
+      <c r="AJ228" s="2"/>
+      <c r="AK228" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL228" s="2"/>
+      <c r="AM228" s="2"/>
+      <c r="AO228" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C229" s="2">
+        <v>620</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E229" s="2">
+        <v>1</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0</v>
+      </c>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2">
+        <v>0</v>
+      </c>
+      <c r="I229" s="2">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2">
+        <v>0</v>
+      </c>
+      <c r="K229" s="2">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2">
+        <v>1</v>
+      </c>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2">
+        <v>6</v>
+      </c>
+      <c r="U229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC229" s="2"/>
+      <c r="AD229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF229" s="2"/>
+      <c r="AG229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI229" s="2"/>
+      <c r="AJ229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL229" s="2"/>
+      <c r="AM229" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO229" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="230" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C230" s="2">
+        <v>836</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E230" s="2">
+        <v>2</v>
+      </c>
+      <c r="F230" s="2">
+        <v>1</v>
+      </c>
+      <c r="G230" s="2">
+        <v>0</v>
+      </c>
+      <c r="H230" s="2">
+        <v>3</v>
+      </c>
+      <c r="I230" s="2">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2">
+        <v>1</v>
+      </c>
+      <c r="S230" s="2">
+        <v>0</v>
+      </c>
+      <c r="T230" s="2">
+        <v>7</v>
+      </c>
+      <c r="U230" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC230" s="2"/>
+      <c r="AD230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF230" s="2"/>
+      <c r="AG230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH230" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI230" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ230" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL230" s="2"/>
+      <c r="AM230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO230" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="231" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C231" s="2">
+        <v>4099</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E231" s="2">
+        <v>2</v>
+      </c>
+      <c r="F231" s="2">
+        <v>1</v>
+      </c>
+      <c r="G231" s="2">
+        <v>0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>1</v>
+      </c>
+      <c r="I231" s="2">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2">
+        <v>1</v>
+      </c>
+      <c r="S231" s="2">
+        <v>1</v>
+      </c>
+      <c r="T231" s="2">
+        <v>2</v>
+      </c>
+      <c r="U231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB231" s="2"/>
+      <c r="AC231" s="2"/>
+      <c r="AD231" s="2"/>
+      <c r="AE231" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF231" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG231" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH231" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI231" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ231" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK231" s="2"/>
+      <c r="AL231" s="2"/>
+      <c r="AM231" s="2"/>
+      <c r="AO231" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="232" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C232" s="2">
+        <v>888</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E232" s="2">
+        <v>1</v>
+      </c>
+      <c r="F232" s="2">
+        <v>1</v>
+      </c>
+      <c r="G232" s="2">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2">
+        <v>0</v>
+      </c>
+      <c r="I232" s="2">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2">
+        <v>0</v>
+      </c>
+      <c r="K232" s="2">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2">
+        <v>1</v>
+      </c>
+      <c r="S232" s="2">
+        <v>1</v>
+      </c>
+      <c r="T232" s="2">
+        <v>3</v>
+      </c>
+      <c r="U232" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB232" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC232" s="2"/>
+      <c r="AD232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF232" s="2"/>
+      <c r="AG232" s="2"/>
+      <c r="AH232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI232" s="2"/>
+      <c r="AJ232" s="2"/>
+      <c r="AK232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL232" s="2"/>
+      <c r="AM232" s="2"/>
+      <c r="AO232" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB233" s="2"/>
+      <c r="AC233" s="2"/>
+      <c r="AD233" s="2"/>
+      <c r="AE233" s="2"/>
+      <c r="AF233" s="2"/>
+      <c r="AG233" s="2"/>
+      <c r="AH233" s="2"/>
+      <c r="AI233" s="2"/>
+      <c r="AJ233" s="2"/>
+      <c r="AK233" s="2"/>
+      <c r="AL233" s="2"/>
+      <c r="AM233" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP200">
@@ -15250,7 +18898,7 @@
   <dimension ref="A1:AQ206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -34305,2170 +37953,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E648FE48-C74D-5E4A-882D-4043D189E5FC}">
-  <dimension ref="A1:AQ36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>611</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2900</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2912</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>888</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>7</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>4</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>3</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3793</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>620</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>3</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>2</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7">
-        <v>2</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>836</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8">
-        <v>2</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>8326</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>5830</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>2988</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>8622</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>4099</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>2914</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>4</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>8326</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>4099</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>3</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1895</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>612</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>5</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>4505</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1895</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>2</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>5830</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>2849</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>3</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>611</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2914</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>2</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>4242</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>2</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>8622</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>620</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>3</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>1</v>
-      </c>
-      <c r="AH27">
-        <v>2</v>
-      </c>
-      <c r="AI27">
-        <v>1</v>
-      </c>
-      <c r="AJ27">
-        <v>1</v>
-      </c>
-      <c r="AK27">
-        <v>3</v>
-      </c>
-      <c r="AL27">
-        <v>1</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>3</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>2912</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>5</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>3793</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>4</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>888</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <v>6</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <v>3</v>
-      </c>
-      <c r="AI30">
-        <v>1</v>
-      </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
-      <c r="AK30">
-        <v>4</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>836</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>2849</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>4</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>2900</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>612</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
-      <c r="AH34">
-        <v>2</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>4242</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>4505</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-      <c r="V36">
-        <v>4</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>